--- a/Detailed BOM.xlsx
+++ b/Detailed BOM.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24915" windowHeight="11580"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24915" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Multi-level BOM" sheetId="2" r:id="rId1"/>
     <sheet name="Parts" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2020 cost analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Multi-level BOM'!$A$2:$E$379</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="982">
   <si>
     <t>Part number</t>
   </si>
@@ -2118,15 +2119,9 @@
     <t>4080 Support post, 625mm long</t>
   </si>
   <si>
-    <t>40x80 Aluminum Extrusion - 8 Series, Base 40</t>
-  </si>
-  <si>
     <t>misumi</t>
   </si>
   <si>
-    <t>https://us.misumi-ec.com/vona2/detail/110302690310/?curSearch=%7b%22field%22%3a%22%40search%22%2c%22seriesCode%22%3a%22110302690310%22%2c%22innerCode%22%3a%22%22%2c%22sort%22%3a1%2c%22specSortFlag%22%3a0%2c%22allSpecFlag%22%3a0%2c%22page%22%3a1%2c%22pageSize%22%3a%2260%22%2c%2200000042719%22%3a%22a%22%2c%2200000332757%22%3a%22625%22%2c%22typeCode%22%3a%22HFS8-4080%22%2c%22fixedInfo%22%3a%22MDM00001302496110302690310-36090445-1255582776479363661%7c27%22%7d&amp;Tab=wysiwyg_area_0</t>
-  </si>
-  <si>
     <t>M12 x 1.75 flat head screw, 25mm long</t>
   </si>
   <si>
@@ -2950,15 +2945,41 @@
   </si>
   <si>
     <t>total proposed spend</t>
+  </si>
+  <si>
+    <t>40x80 Aluminum Extrusion - 8 Series, Base 40, 625mm long, both ends tapped.</t>
+  </si>
+  <si>
+    <t>https://us.misumi-ec.com/vona2/detail/110302690310/?curSearch=%7b%22field%22%3a%22%40search%22%2c%22seriesCode%22%3a%22110302690310%22%2c%22innerCode%22%3a%22%22%2c%22sort%22%3a1%2c%22specSortFlag%22%3a0%2c%22allSpecFlag%22%3a0%2c%22page%22%3a1%2c%22pageSize%22%3a%2260%22%2c%2200000042719%22%3a%22a%22%2c%2200000332757%22%3a%22625%22%2c%22typeCode%22%3a%22HFS8-4080%22%2c%2200000355925%22%3a%22mig00000009010655%22%2c%22fixedInfo%22%3a%22MDM00001302496110302690310-36090445-1255582776479363661%7c27%22%7d&amp;Tab=wysiwyg_area_0</t>
+  </si>
+  <si>
+    <t>Misumi quote for 2020 at different lengths</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>slope of line</t>
+  </si>
+  <si>
+    <t>per 25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum buy length </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -3195,7 +3216,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3335,6 +3356,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4970,6 +4994,609 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2683792776576498E-2"/>
+          <c:y val="0.12076826925531227"/>
+          <c:w val="0.82867495277819925"/>
+          <c:h val="0.75972637833018519"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2020 cost analysis'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2020 cost analysis'!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2020 cost analysis'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="163801728"/>
+        <c:axId val="163800192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="163801728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163800192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="163800192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163801728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337769</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800115" y="3778494"/>
+          <a:ext cx="3333019" cy="1416294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                             $0.016</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> per 25mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Don't buy any piece shorter than 480mm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123331</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12756572">
+          <a:off x="7382410" y="3706859"/>
+          <a:ext cx="419536" cy="140461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494639</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>132984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464363</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Right Arrow 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8184353">
+          <a:off x="6348851" y="4895484"/>
+          <a:ext cx="577858" cy="183173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21400"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16802</cdr:x>
+      <cdr:y>0.71599</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24224</cdr:x>
+      <cdr:y>0.71599</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1127982" y="3842971"/>
+          <a:ext cx="498230" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24115</cdr:x>
+      <cdr:y>0.71736</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24115</cdr:x>
+      <cdr:y>0.88253</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1618885" y="3850298"/>
+          <a:ext cx="0" cy="886558"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R635" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <autoFilter ref="A3:R635"/>
@@ -5300,9 +5927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,7 +5966,7 @@
         <v>639</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>642</v>
@@ -5348,7 +5975,7 @@
         <v>667</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>668</v>
@@ -5363,7 +5990,7 @@
       <c r="Q2" s="53"/>
       <c r="R2" s="53"/>
       <c r="T2" s="53" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -5427,7 +6054,7 @@
       </c>
       <c r="H4" s="44">
         <f>SUM(H5,H68,H93,H131,H134,H197,H206,H215,H226,H236)</f>
-        <v>1965.0897646415754</v>
+        <v>1991.2497646415752</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I5" si="1">IF($A4="",I3,
@@ -6031,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Table1[#All],2,FALSE))</f>
@@ -6095,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>12</v>
@@ -6232,7 +6859,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>28</v>
@@ -6241,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Table1[#All],2,FALSE))</f>
@@ -6587,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Table1[#All],2,FALSE))</f>
@@ -6651,7 +7278,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>35</v>
@@ -6660,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Table1[#All],2,FALSE))</f>
@@ -6791,7 +7418,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>28</v>
@@ -6800,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Table1[#All],2,FALSE))</f>
@@ -6928,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="2">
@@ -7066,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>10</v>
@@ -7145,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Table1[#All],2,FALSE))</f>
@@ -7209,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>69</v>
@@ -7218,7 +7845,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>IF(C29="","",VLOOKUP(C29,Table1[#All],2,FALSE))</f>
@@ -7352,7 +7979,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>28</v>
@@ -7361,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>IF(C31="","",VLOOKUP(C31,Table1[#All],2,FALSE))</f>
@@ -7429,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>70</v>
@@ -7503,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>70</v>
@@ -7637,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="2">
@@ -7775,7 +8402,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>10</v>
@@ -7854,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>IF(C38="","",VLOOKUP(C38,Table1[#All],2,FALSE))</f>
@@ -7918,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>69</v>
@@ -7927,7 +8554,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>IF(C39="","",VLOOKUP(C39,Table1[#All],2,FALSE))</f>
@@ -8061,7 +8688,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>28</v>
@@ -8135,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>70</v>
@@ -8209,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>70</v>
@@ -8424,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>IF(C46="","",VLOOKUP(C46,Table1[#All],2,FALSE))</f>
@@ -8567,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>16</v>
@@ -8576,7 +9203,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>IF(C48="","",VLOOKUP(C48,Table1[#All],2,FALSE))</f>
@@ -8649,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>IF(C49="","",VLOOKUP(C49,Table1[#All],2,FALSE))</f>
@@ -8783,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>28</v>
@@ -8792,7 +9419,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F51" s="1" t="str">
         <f>IF(C51="","",VLOOKUP(C51,Table1[#All],2,FALSE))</f>
@@ -8989,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F54" s="1" t="str">
         <f>IF(C54="","",VLOOKUP(C54,Table1[#All],2,FALSE))</f>
@@ -9124,7 +9751,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>36</v>
@@ -9133,7 +9760,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F56" s="1" t="str">
         <f>IF(C56="","",VLOOKUP(C56,Table1[#All],2,FALSE))</f>
@@ -9206,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>IF(C57="","",VLOOKUP(C57,Table1[#All],2,FALSE))</f>
@@ -9340,7 +9967,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>28</v>
@@ -9349,7 +9976,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>IF(C59="","",VLOOKUP(C59,Table1[#All],2,FALSE))</f>
@@ -9596,7 +10223,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>18</v>
@@ -9605,7 +10232,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>IF(C63="","",VLOOKUP(C63,Table1[#All],2,FALSE))</f>
@@ -9669,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>41</v>
@@ -9678,7 +10305,7 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F64" s="1" t="str">
         <f>IF(C64="","",VLOOKUP(C64,Table1[#All],2,FALSE))</f>
@@ -9742,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>40</v>
@@ -9751,7 +10378,7 @@
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F65" s="1" t="str">
         <f>IF(C65="","",VLOOKUP(C65,Table1[#All],2,FALSE))</f>
@@ -9815,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>44</v>
@@ -10009,7 +10636,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>23</v>
@@ -10018,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F69" s="1" t="str">
         <f>IF(C69="","",VLOOKUP(C69,Table1[#All],2,FALSE))</f>
@@ -10285,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73="","",VLOOKUP(C73,Table1[#All],2,FALSE))</f>
@@ -10349,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>37</v>
@@ -10358,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(C74="","",VLOOKUP(C74,Table1[#All],2,FALSE))</f>
@@ -10492,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>28</v>
@@ -10501,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>IF(C76="","",VLOOKUP(C76,Table1[#All],2,FALSE))</f>
@@ -10839,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F81" s="1" t="str">
         <f>IF(C81="","",VLOOKUP(C81,Table1[#All],2,FALSE))</f>
@@ -10903,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>38</v>
@@ -10912,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F82" s="1" t="str">
         <f>IF(C82="","",VLOOKUP(C82,Table1[#All],2,FALSE))</f>
@@ -11046,7 +11673,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>28</v>
@@ -11055,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F84" s="1" t="str">
         <f>IF(C84="","",VLOOKUP(C84,Table1[#All],2,FALSE))</f>
@@ -11170,7 +11797,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
@@ -11179,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F86" s="1" t="str">
         <f>IF(C86="","",VLOOKUP(C86,Table1[#All],2,FALSE))</f>
@@ -11243,7 +11870,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>27</v>
@@ -11372,7 +11999,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
@@ -11442,7 +12069,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>41</v>
@@ -11512,7 +12139,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>40</v>
@@ -11645,7 +12272,7 @@
       </c>
       <c r="H93" s="45">
         <f>G93*SUM(H94:H96,H99)</f>
-        <v>322.5178786923077</v>
+        <v>348.67787869230767</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" si="14"/>
@@ -11777,7 +12404,7 @@
       </c>
       <c r="F95" s="1" t="str">
         <f>IF(C95="","",VLOOKUP(C95,Table1[#All],2,FALSE))</f>
-        <v>40x80 Aluminum Extrusion - 8 Series, Base 40</v>
+        <v>40x80 Aluminum Extrusion - 8 Series, Base 40, 625mm long, both ends tapped.</v>
       </c>
       <c r="G95" s="2">
         <f>PRODUCT(I95:R95)</f>
@@ -11785,7 +12412,7 @@
       </c>
       <c r="H95" s="45">
         <f>IF(C95&lt;&gt;"",(VLOOKUP(C95,part_details,4,FALSE)+VLOOKUP(C95,part_details,5,FALSE)+VLOOKUP(C95,part_details,6,FALSE))*'Multi-level BOM'!D95,"")</f>
-        <v>93.403599999999997</v>
+        <v>119.56360000000001</v>
       </c>
       <c r="I95" s="4">
         <f t="shared" si="14"/>
@@ -11837,7 +12464,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
@@ -11846,7 +12473,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F96" s="1" t="str">
         <f>IF(C96="","",VLOOKUP(C96,Table1[#All],2,FALSE))</f>
@@ -12024,7 +12651,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
@@ -12090,7 +12717,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>71</v>
@@ -12160,7 +12787,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>72</v>
@@ -12234,7 +12861,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -12304,7 +12931,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>68</v>
@@ -12374,7 +13001,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
@@ -12444,7 +13071,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>71</v>
@@ -12514,7 +13141,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -12584,7 +13211,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>32</v>
@@ -12654,7 +13281,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>68</v>
@@ -12724,7 +13351,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
@@ -12794,7 +13421,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>71</v>
@@ -12864,7 +13491,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>72</v>
@@ -12934,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>32</v>
@@ -13004,7 +13631,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>68</v>
@@ -13074,7 +13701,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
@@ -13148,7 +13775,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>73</v>
@@ -13218,7 +13845,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -13288,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>32</v>
@@ -13358,7 +13985,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>68</v>
@@ -13428,7 +14055,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -13498,7 +14125,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>73</v>
@@ -13568,7 +14195,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>72</v>
@@ -13638,7 +14265,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>32</v>
@@ -13708,7 +14335,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>68</v>
@@ -13778,7 +14405,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
@@ -13848,7 +14475,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>73</v>
@@ -13918,7 +14545,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>72</v>
@@ -13988,7 +14615,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>32</v>
@@ -14062,7 +14689,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>68</v>
@@ -14136,7 +14763,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>33</v>
@@ -14269,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>21</v>
@@ -14278,7 +14905,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F131" s="1" t="str">
         <f>IF(C131="","",VLOOKUP(C131,Table1[#All],2,FALSE))</f>
@@ -14460,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
@@ -14531,7 +15158,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
@@ -14598,7 +15225,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -14607,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F136" s="1" t="str">
         <f>IF(C136="","",VLOOKUP(C136,Table1[#All],2,FALSE))</f>
@@ -14681,7 +15308,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F137" s="1" t="str">
         <f>IF(C137="","",VLOOKUP(C137,Table1[#All],2,FALSE))</f>
@@ -14745,7 +15372,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>24</v>
@@ -14754,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F138" s="1" t="str">
         <f>IF(C138="","",VLOOKUP(C138,Table1[#All],2,FALSE))</f>
@@ -14818,7 +15445,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
@@ -14888,7 +15515,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>67</v>
@@ -14897,7 +15524,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F140" s="1" t="str">
         <f>IF(C140="","",VLOOKUP(C140,Table1[#All],2,FALSE))</f>
@@ -14961,7 +15588,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>47</v>
@@ -14970,7 +15597,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F141" s="1" t="str">
         <f>IF(C141="","",VLOOKUP(C141,Table1[#All],2,FALSE))</f>
@@ -15034,7 +15661,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>26</v>
@@ -15043,7 +15670,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F142" s="1" t="str">
         <f>IF(C142="","",VLOOKUP(C142,Table1[#All],2,FALSE))</f>
@@ -15107,7 +15734,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>66</v>
@@ -15116,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F143" s="1" t="str">
         <f>IF(C143="","",VLOOKUP(C143,Table1[#All],2,FALSE))</f>
@@ -15180,7 +15807,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>51</v>
@@ -15250,7 +15877,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>32</v>
@@ -15259,7 +15886,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F145" s="1" t="str">
         <f>IF(C145="","",VLOOKUP(C145,Table1[#All],2,FALSE))</f>
@@ -15323,7 +15950,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>68</v>
@@ -15332,7 +15959,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F146" s="1" t="str">
         <f>IF(C146="","",VLOOKUP(C146,Table1[#All],2,FALSE))</f>
@@ -15396,7 +16023,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
@@ -15405,7 +16032,7 @@
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F147" s="1" t="str">
         <f>IF(C147="","",VLOOKUP(C147,Table1[#All],2,FALSE))</f>
@@ -15469,7 +16096,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>74</v>
@@ -15543,7 +16170,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>51</v>
@@ -15613,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>51</v>
@@ -15683,7 +16310,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>42</v>
@@ -15692,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F151" s="1" t="str">
         <f>IF(C151="","",VLOOKUP(C151,Table1[#All],2,FALSE))</f>
@@ -15756,13 +16383,13 @@
         <v>3</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F152" s="1" t="str">
         <f>IF(C152="","",VLOOKUP(C152,Table1[#All],2,FALSE))</f>
@@ -15826,7 +16453,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>46</v>
@@ -15835,7 +16462,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F153" s="1" t="str">
         <f>IF(C153="","",VLOOKUP(C153,Table1[#All],2,FALSE))</f>
@@ -15903,7 +16530,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>47</v>
@@ -15912,7 +16539,7 @@
         <v>6</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F154" s="1" t="str">
         <f>IF(C154="","",VLOOKUP(C154,Table1[#All],2,FALSE))</f>
@@ -16094,7 +16721,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -16165,7 +16792,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -16174,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F158" s="1" t="str">
         <f>IF(C158="","",VLOOKUP(C158,Table1[#All],2,FALSE))</f>
@@ -16248,7 +16875,7 @@
         <v>13</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F159" s="1" t="str">
         <f>IF(C159="","",VLOOKUP(C159,Table1[#All],2,FALSE))</f>
@@ -16316,7 +16943,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>24</v>
@@ -16325,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F160" s="1" t="str">
         <f>IF(C160="","",VLOOKUP(C160,Table1[#All],2,FALSE))</f>
@@ -16393,7 +17020,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
@@ -16467,7 +17094,7 @@
         <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>67</v>
@@ -16476,7 +17103,7 @@
         <v>4</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F162" s="1" t="str">
         <f>IF(C162="","",VLOOKUP(C162,Table1[#All],2,FALSE))</f>
@@ -16544,7 +17171,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>47</v>
@@ -16553,7 +17180,7 @@
         <v>4</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F163" s="1" t="str">
         <f>IF(C163="","",VLOOKUP(C163,Table1[#All],2,FALSE))</f>
@@ -16621,7 +17248,7 @@
         <v>3</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>26</v>
@@ -16630,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F164" s="1" t="str">
         <f>IF(C164="","",VLOOKUP(C164,Table1[#All],2,FALSE))</f>
@@ -16698,7 +17325,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>66</v>
@@ -16707,7 +17334,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F165" s="1" t="str">
         <f>IF(C165="","",VLOOKUP(C165,Table1[#All],2,FALSE))</f>
@@ -16775,7 +17402,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
@@ -16784,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F166" s="1" t="str">
         <f>IF(C166="","",VLOOKUP(C166,Table1[#All],2,FALSE))</f>
@@ -16852,7 +17479,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>32</v>
@@ -16861,7 +17488,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F167" s="1" t="str">
         <f>IF(C167="","",VLOOKUP(C167,Table1[#All],2,FALSE))</f>
@@ -16929,7 +17556,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>68</v>
@@ -16938,7 +17565,7 @@
         <v>3</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F168" s="1" t="str">
         <f>IF(C168="","",VLOOKUP(C168,Table1[#All],2,FALSE))</f>
@@ -17006,7 +17633,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>33</v>
@@ -17015,7 +17642,7 @@
         <v>3</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F169" s="1" t="str">
         <f>IF(C169="","",VLOOKUP(C169,Table1[#All],2,FALSE))</f>
@@ -17083,7 +17710,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>74</v>
@@ -17157,7 +17784,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>31</v>
@@ -17166,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F171" s="1" t="str">
         <f>IF(C171="","",VLOOKUP(C171,Table1[#All],2,FALSE))</f>
@@ -17234,7 +17861,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>42</v>
@@ -17243,7 +17870,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F172" s="1" t="str">
         <f>IF(C172="","",VLOOKUP(C172,Table1[#All],2,FALSE))</f>
@@ -17311,13 +17938,13 @@
         <v>3</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F173" s="1" t="str">
         <f>IF(C173="","",VLOOKUP(C173,Table1[#All],2,FALSE))</f>
@@ -17385,7 +18012,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>46</v>
@@ -17394,7 +18021,7 @@
         <v>2</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F174" s="1" t="str">
         <f>IF(C174="","",VLOOKUP(C174,Table1[#All],2,FALSE))</f>
@@ -17462,7 +18089,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>47</v>
@@ -17471,7 +18098,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F175" s="1" t="str">
         <f>IF(C175="","",VLOOKUP(C175,Table1[#All],2,FALSE))</f>
@@ -17594,7 +18221,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -17665,7 +18292,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -17749,7 +18376,7 @@
         <v>13</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F179" s="1" t="str">
         <f>IF(C179="","",VLOOKUP(C179,Table1[#All],2,FALSE))</f>
@@ -17817,7 +18444,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
@@ -17826,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F180" s="1" t="str">
         <f>IF(C180="","",VLOOKUP(C180,Table1[#All],2,FALSE))</f>
@@ -17894,7 +18521,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
@@ -17903,7 +18530,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F181" s="1" t="str">
         <f>IF(C181="","",VLOOKUP(C181,Table1[#All],2,FALSE))</f>
@@ -17971,7 +18598,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>67</v>
@@ -18045,7 +18672,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>47</v>
@@ -18054,7 +18681,7 @@
         <v>4</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F183" s="1" t="str">
         <f>IF(C183="","",VLOOKUP(C183,Table1[#All],2,FALSE))</f>
@@ -18122,7 +18749,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>26</v>
@@ -18131,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F184" s="1" t="str">
         <f>IF(C184="","",VLOOKUP(C184,Table1[#All],2,FALSE))</f>
@@ -18199,7 +18826,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>66</v>
@@ -18208,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F185" s="1" t="str">
         <f>IF(C185="","",VLOOKUP(C185,Table1[#All],2,FALSE))</f>
@@ -18276,7 +18903,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>29</v>
@@ -18285,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F186" s="1" t="str">
         <f>IF(C186="","",VLOOKUP(C186,Table1[#All],2,FALSE))</f>
@@ -18353,7 +18980,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>32</v>
@@ -18362,7 +18989,7 @@
         <v>2</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F187" s="1" t="str">
         <f>IF(C187="","",VLOOKUP(C187,Table1[#All],2,FALSE))</f>
@@ -18430,7 +19057,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>68</v>
@@ -18439,7 +19066,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F188" s="1" t="str">
         <f>IF(C188="","",VLOOKUP(C188,Table1[#All],2,FALSE))</f>
@@ -18507,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>33</v>
@@ -18516,7 +19143,7 @@
         <v>3</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F189" s="1" t="str">
         <f>IF(C189="","",VLOOKUP(C189,Table1[#All],2,FALSE))</f>
@@ -18584,7 +19211,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>74</v>
@@ -18658,7 +19285,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>31</v>
@@ -18667,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F191" s="1" t="str">
         <f>IF(C191="","",VLOOKUP(C191,Table1[#All],2,FALSE))</f>
@@ -18735,7 +19362,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>42</v>
@@ -18744,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F192" s="1" t="str">
         <f>IF(C192="","",VLOOKUP(C192,Table1[#All],2,FALSE))</f>
@@ -18812,13 +19439,13 @@
         <v>3</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F193" s="1" t="str">
         <f>IF(C193="","",VLOOKUP(C193,Table1[#All],2,FALSE))</f>
@@ -18886,7 +19513,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>46</v>
@@ -18895,7 +19522,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F194" s="1" t="str">
         <f>IF(C194="","",VLOOKUP(C194,Table1[#All],2,FALSE))</f>
@@ -18963,7 +19590,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>47</v>
@@ -18972,7 +19599,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F195" s="1" t="str">
         <f>IF(C195="","",VLOOKUP(C195,Table1[#All],2,FALSE))</f>
@@ -19095,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D197" s="2">
         <v>1</v>
@@ -19162,7 +19789,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>43</v>
@@ -19232,7 +19859,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F199" s="1" t="str">
         <f>IF(C199="","",VLOOKUP(C199,Table1[#All],2,FALSE))</f>
@@ -19296,7 +19923,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -19367,7 +19994,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D201" s="2">
         <v>3</v>
@@ -19438,7 +20065,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>55</v>
@@ -19512,7 +20139,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>56</v>
@@ -19586,7 +20213,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>57</v>
@@ -19715,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -19786,7 +20413,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>58</v>
@@ -19860,7 +20487,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>59</v>
@@ -19934,7 +20561,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>60</v>
@@ -20303,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D215" s="2">
         <v>1</v>
@@ -20374,7 +21001,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>45</v>
@@ -20448,7 +21075,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>45</v>
@@ -20522,7 +21149,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>45</v>
@@ -20596,7 +21223,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>45</v>
@@ -20667,7 +21294,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B220" s="34" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F220" s="1" t="str">
         <f>IF(C220="","",VLOOKUP(C220,Table1[#All],2,FALSE))</f>
@@ -20732,7 +21359,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B221" s="34" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G221" s="2">
         <f t="shared" si="136"/>
@@ -20793,7 +21420,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B222" s="34" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G222" s="2">
         <f t="shared" si="136"/>
@@ -20854,7 +21481,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B223" s="34" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D223" s="2">
         <v>4</v>
@@ -20918,7 +21545,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B224" s="34" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G224" s="2">
         <f t="shared" si="136"/>
@@ -21041,7 +21668,7 @@
         <v>1</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -21112,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>48</v>
@@ -21186,7 +21813,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>49</v>
@@ -21264,7 +21891,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>50</v>
@@ -21338,7 +21965,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C230" s="35" t="s">
         <v>50</v>
@@ -21412,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>52</v>
@@ -21486,7 +22113,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>54</v>
@@ -21560,7 +22187,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>54</v>
@@ -21634,7 +22261,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>53</v>
@@ -21842,7 +22469,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>61</v>
@@ -21916,7 +22543,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>62</v>
@@ -21990,7 +22617,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>63</v>
@@ -21999,7 +22626,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F239" s="1" t="str">
         <f>IF(C239="","",VLOOKUP(C239,Table1[#All],2,FALSE))</f>
@@ -22067,7 +22694,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>64</v>
@@ -31385,9 +32012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R637"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31416,21 +32043,21 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K1" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K2" s="3">
         <f>SUM(Table1[Ideal cost])</f>
-        <v>1965.0897646415754</v>
+        <v>1991.2497646415752</v>
       </c>
       <c r="L2" s="3"/>
       <c r="P2" s="51">
         <f>SUM(Table1[Remaining Extended cost])</f>
-        <v>1812.41554</v>
+        <v>1838.57554</v>
       </c>
       <c r="Q2" s="3">
         <f>SUM(Table1[Cost of excess material])</f>
@@ -31463,37 +32090,37 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="48" t="s">
+        <v>703</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>923</v>
+      </c>
+      <c r="N3" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>925</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>707</v>
-      </c>
       <c r="O3" s="48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="P3" s="52" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q3" s="37" t="s">
         <v>965</v>
       </c>
-      <c r="Q3" s="37" t="s">
-        <v>967</v>
-      </c>
       <c r="R3" s="37" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -31501,7 +32128,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>648</v>
@@ -31523,7 +32150,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J4" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -31558,7 +32185,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>648</v>
@@ -31666,7 +32293,7 @@
         <v>8.8224599999999995</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -31728,7 +32355,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -31794,7 +32421,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>656</v>
@@ -31845,7 +32472,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -31904,7 +32531,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -31966,7 +32593,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>656</v>
@@ -32020,7 +32647,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -32028,7 +32655,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>656</v>
@@ -32086,7 +32713,7 @@
         <v>689</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D14" s="3">
         <v>25.91</v>
@@ -32133,7 +32760,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -32141,7 +32768,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>656</v>
@@ -32155,7 +32782,7 @@
         <v>8.091000000000001E-3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H15" s="2">
         <v>100</v>
@@ -32243,18 +32870,18 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="D17" s="3">
-        <v>22.68</v>
+        <v>30.68</v>
       </c>
       <c r="E17" s="3">
         <f>19.24/3</f>
@@ -32262,10 +32889,10 @@
       </c>
       <c r="F17" s="3">
         <f>9%*Table1[[#This Row],[Cost ]]</f>
-        <v>2.0411999999999999</v>
+        <v>2.7611999999999997</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>700</v>
+        <v>975</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -32276,7 +32903,7 @@
       </c>
       <c r="K17" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>93.403599999999997</v>
+        <v>119.56360000000001</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="40"/>
@@ -32290,7 +32917,7 @@
       </c>
       <c r="P17" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>93.403599999999997</v>
+        <v>119.56360000000001</v>
       </c>
       <c r="Q17" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
@@ -32303,10 +32930,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D18" s="3">
         <f>8.03/10</f>
@@ -32321,13 +32948,13 @@
         <v>7.2269999999999987E-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H18" s="2">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J18" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32362,10 +32989,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D19" s="3">
         <v>16.989999999999998</v>
@@ -32377,7 +33004,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -32415,7 +33042,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>648</v>
@@ -32468,10 +33095,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D21" s="3">
         <v>3.74</v>
@@ -32484,13 +33111,13 @@
         <v>0.33660000000000001</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J21" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32525,7 +33152,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>656</v>
@@ -32541,7 +33168,7 @@
         <v>1.9395</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -32575,7 +33202,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -32583,7 +33210,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>656</v>
@@ -32596,7 +33223,7 @@
         <v>1.7982</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -32634,10 +33261,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D24" s="3">
         <v>8.5500000000000007</v>
@@ -32650,13 +33277,13 @@
         <v>0.76950000000000007</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J24" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32691,10 +33318,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D25" s="3">
         <f>6.18/35</f>
@@ -32705,13 +33332,13 @@
         <v>1.589142857142857E-2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H25" s="2">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J25" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32746,10 +33373,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D26" s="3">
         <f>14.75/4</f>
@@ -32767,7 +33394,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J26" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32802,10 +33429,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D27" s="3">
         <f>7.51/12</f>
@@ -32823,7 +33450,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J27" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32858,10 +33485,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D28" s="3">
         <f>5.1/2</f>
@@ -32875,13 +33502,13 @@
         <v>0.22949999999999998</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H28" s="2">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J28" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32916,10 +33543,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D29" s="3">
         <f>8.99/50</f>
@@ -32930,7 +33557,7 @@
         <v>1.6182000000000002E-2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H29" s="2">
         <v>50</v>
@@ -32968,7 +33595,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>656</v>
@@ -32982,7 +33609,7 @@
         <v>2.8003846153846153E-2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H30" s="2">
         <v>26</v>
@@ -33020,7 +33647,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>656</v>
@@ -33034,7 +33661,7 @@
         <v>8.0010000000000012E-3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H31" s="2">
         <v>100</v>
@@ -33072,7 +33699,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>656</v>
@@ -33086,7 +33713,7 @@
         <v>8.541E-2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H32" s="2">
         <v>10</v>
@@ -33124,7 +33751,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>656</v>
@@ -33138,7 +33765,7 @@
         <v>0.10061999999999999</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H33" s="2">
         <v>5</v>
@@ -33176,7 +33803,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>656</v>
@@ -33190,7 +33817,7 @@
         <v>4.2749999999999996E-2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
@@ -33228,7 +33855,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>656</v>
@@ -33242,7 +33869,7 @@
         <v>3.5964000000000003E-2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H35" s="2">
         <v>25</v>
@@ -33280,7 +33907,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>656</v>
@@ -33294,7 +33921,7 @@
         <v>7.6410000000000002E-3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H36" s="2">
         <v>100</v>
@@ -33332,7 +33959,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>656</v>
@@ -33346,7 +33973,7 @@
         <v>7.1909999999999995E-3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H37" s="2">
         <v>100</v>
@@ -33384,7 +34011,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>656</v>
@@ -33398,7 +34025,7 @@
         <v>4.4910000000000002E-3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H38" s="2">
         <v>100</v>
@@ -33436,10 +34063,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D39" s="3">
         <v>5.69</v>
@@ -33452,13 +34079,13 @@
         <v>0.5121</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J39" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33493,7 +34120,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>648</v>
@@ -33514,7 +34141,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J40" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33549,10 +34176,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D41" s="3">
         <v>2.2000000000000002</v>
@@ -33566,13 +34193,13 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J41" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33607,10 +34234,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D42" s="3">
         <f>25/2</f>
@@ -33625,13 +34252,13 @@
         <v>1.125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J42" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33666,7 +34293,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>656</v>
@@ -33680,7 +34307,7 @@
         <v>1.3477499999999998E-2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H43" s="2">
         <v>40</v>
@@ -33718,7 +34345,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>656</v>
@@ -33732,7 +34359,7 @@
         <v>5.391E-3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H44" s="2">
         <v>100</v>
@@ -33770,7 +34397,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>656</v>
@@ -33784,7 +34411,7 @@
         <v>0.24727499999999999</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H45" s="2">
         <v>4</v>
@@ -33822,10 +34449,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D46" s="3">
         <v>3.48</v>
@@ -33839,13 +34466,13 @@
         <v>0.31319999999999998</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J46" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33880,10 +34507,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D47" s="3">
         <v>3.6</v>
@@ -33897,7 +34524,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -33935,10 +34562,10 @@
         <v>51</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D48" s="3">
         <f>12.25/3</f>
@@ -33952,13 +34579,13 @@
         <v>0.36749999999999994</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H48" s="2">
         <v>3</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J48" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33989,7 +34616,7 @@
         <v>10.901666666666666</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -33997,10 +34624,10 @@
         <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D49" s="3">
         <v>3.03</v>
@@ -34013,14 +34640,14 @@
         <f>9%*Table1[[#This Row],[Cost ]]</f>
         <v>0.2727</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>876</v>
+      <c r="G49" s="5" t="s">
+        <v>874</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J49" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34055,7 +34682,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>656</v>
@@ -34068,7 +34695,7 @@
         <v>3.069</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
@@ -34106,7 +34733,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>656</v>
@@ -34120,7 +34747,7 @@
         <v>1.5345</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
@@ -34158,7 +34785,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>656</v>
@@ -34171,7 +34798,7 @@
         <v>3.5991</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -34209,7 +34836,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>656</v>
@@ -34222,7 +34849,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -34260,10 +34887,10 @@
         <v>57</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D54" s="3">
         <v>46.71</v>
@@ -34276,13 +34903,13 @@
         <v>4.2039</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J54" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34317,7 +34944,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>656</v>
@@ -34330,7 +34957,7 @@
         <v>2.0690999999999997</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -34368,7 +34995,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>656</v>
@@ -34381,7 +35008,7 @@
         <v>0.79649999999999999</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -34419,10 +35046,10 @@
         <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D57" s="3">
         <v>48.96</v>
@@ -34434,13 +35061,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J57" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34475,10 +35102,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D58" s="3">
         <v>147</v>
@@ -34490,13 +35117,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J58" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34527,7 +35154,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -34535,10 +35162,10 @@
         <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D59" s="3">
         <v>69.08</v>
@@ -34550,13 +35177,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J59" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34591,7 +35218,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>656</v>
@@ -34604,7 +35231,7 @@
         <v>2.2212000000000001</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -34642,7 +35269,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>656</v>
@@ -34655,7 +35282,7 @@
         <v>0.89910000000000001</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -34693,7 +35320,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>656</v>
@@ -34706,7 +35333,7 @@
         <v>1.8890999999999998</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -34744,7 +35371,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>656</v>
@@ -34758,7 +35385,7 @@
         <v>0.17981999999999998</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H63" s="2">
         <v>5</v>
@@ -34796,7 +35423,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>656</v>
@@ -34810,7 +35437,7 @@
         <v>8.9910000000000007E-3</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H64" s="2">
         <v>100</v>
@@ -34848,7 +35475,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>656</v>
@@ -34862,7 +35489,7 @@
         <v>8.091000000000001E-3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H65" s="2">
         <v>100</v>
@@ -34900,7 +35527,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>656</v>
@@ -34914,7 +35541,7 @@
         <v>2.5769999999999998E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H66" s="2">
         <v>12</v>
@@ -34952,10 +35579,10 @@
         <v>70</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D67" s="3">
         <f>4.69/13</f>
@@ -34966,13 +35593,13 @@
         <v>3.2469230769230771E-2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H67" s="2">
         <v>12</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J67" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35003,7 +35630,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -35011,10 +35638,10 @@
         <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D68" s="3">
         <v>14.78</v>
@@ -35030,7 +35657,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J68" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35065,7 +35692,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>656</v>
@@ -35079,7 +35706,7 @@
         <v>1.0782E-2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H69" s="2">
         <v>50</v>
@@ -35117,10 +35744,10 @@
         <v>73</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D70" s="3">
         <v>11.94</v>
@@ -35136,7 +35763,7 @@
         <v>3</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J70" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35171,10 +35798,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F71" s="3">
         <f>9%*Table1[[#This Row],[Cost ]]</f>
@@ -35212,7 +35839,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -56085,7 +56712,7 @@
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M637" s="38" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -56103,11 +56730,12 @@
     <hyperlink ref="G22" r:id="rId10"/>
     <hyperlink ref="G23" r:id="rId11"/>
     <hyperlink ref="G35" r:id="rId12"/>
+    <hyperlink ref="G49" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -56135,12 +56763,12 @@
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I1" s="21"/>
       <c r="L1" s="19"/>
       <c r="M1" s="20" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N1" s="21"/>
     </row>
@@ -56157,14 +56785,14 @@
         <v>0.9</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="29">
         <v>5.9</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -56180,14 +56808,14 @@
         <v>6</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="23">
         <v>0.9</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -56196,14 +56824,14 @@
         <v>0.25</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <v>6</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -56212,14 +56840,14 @@
         <v>6</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="23">
         <v>0.25</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -56231,14 +56859,14 @@
         <v>34.25</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <v>6</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -56254,14 +56882,14 @@
         <v>9.52</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="23">
         <v>11.9</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56277,14 +56905,14 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="18">
         <v>0.9</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56293,7 +56921,7 @@
         <v>5.9</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="26">
@@ -56314,7 +56942,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -56324,7 +56952,7 @@
         <v>0.9</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -56333,7 +56961,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -56345,7 +56973,7 @@
         <v>49.5</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -56354,7 +56982,7 @@
         <v>9.52</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.25">
@@ -56363,7 +56991,7 @@
         <v>0.9</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56372,7 +57000,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56387,12 +57015,12 @@
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G22" s="19"/>
       <c r="H22" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I22" s="21"/>
       <c r="L22" s="19"/>
       <c r="M22" s="20" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N22" s="21"/>
     </row>
@@ -56403,7 +57031,7 @@
         <v>11.5</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="23">
@@ -56411,7 +57039,7 @@
         <v>8.5</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="7:14" x14ac:dyDescent="0.25">
@@ -56420,14 +57048,14 @@
         <v>9.52</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="23">
         <v>6.35</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
@@ -56436,14 +57064,14 @@
         <v>0.5</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="23">
         <v>0.5</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56452,14 +57080,14 @@
         <v>3.9</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="18">
         <v>3.9</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56480,7 +57108,7 @@
     <row r="30" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G30" s="19"/>
       <c r="H30" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I30" s="21"/>
     </row>
@@ -56490,7 +57118,7 @@
         <v>241.5</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.25">
@@ -56499,7 +57127,7 @@
         <v>9.5</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
@@ -56508,7 +57136,7 @@
         <v>597.5</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
@@ -56517,7 +57145,7 @@
         <v>10.5</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
@@ -56526,7 +57154,7 @@
         <v>68.7</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
@@ -56535,7 +57163,7 @@
         <v>14.9</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
@@ -56544,7 +57172,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
@@ -56553,7 +57181,7 @@
         <v>22.2</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
@@ -56562,7 +57190,7 @@
         <v>440</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
@@ -56571,7 +57199,7 @@
         <v>13.3</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
@@ -56580,7 +57208,7 @@
         <v>302</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.25">
@@ -56589,7 +57217,7 @@
         <v>13.4</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.25">
@@ -56598,7 +57226,7 @@
         <v>470</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56607,7 +57235,7 @@
         <v>16.5</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="7:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56624,11 +57252,245 @@
         <v>4.5136000000000003</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+100</f>
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>250</v>
+      </c>
+      <c r="B7">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>275</v>
+      </c>
+      <c r="B8">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>295</v>
+      </c>
+      <c r="B9">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A6+100</f>
+        <v>300</v>
+      </c>
+      <c r="B10">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>350</v>
+      </c>
+      <c r="B11">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A10+100</f>
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A23" si="0">A12+100</f>
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="B14">
+        <v>3.78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>625</v>
+      </c>
+      <c r="B15">
+        <v>3.93</v>
+      </c>
+      <c r="D15" s="55">
+        <f>25*(B25-B10)/(A25-A10)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="E15" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A14+100</f>
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>4.41</v>
+      </c>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>5.04</v>
+      </c>
+      <c r="D17" s="57">
+        <f>3.03/(D15/25)</f>
+        <v>480.95238095238091</v>
+      </c>
+      <c r="E17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="B18">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="B20">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="B22">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="B23">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1500</v>
+      </c>
+      <c r="B24">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25">
+        <v>12.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Detailed BOM.xlsx
+++ b/Detailed BOM.xlsx
@@ -21,8 +21,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ms</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ms: Includes cost, tax, and shipping for all parts (even those already on hand), assuming we can buy only the precise quantity needed.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ms:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Includes all mmoney we need to spend to get the parts we still do not have on hand. Includes tax, shipping, and excess material due to minimum buy quantities.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="990">
   <si>
     <t>Part number</t>
   </si>
@@ -2125,15 +2185,6 @@
     <t>M12 x 1.75 flat head screw, 25mm long</t>
   </si>
   <si>
-    <t>mcmaster carr</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/91263a492</t>
-  </si>
-  <si>
-    <t>Shipping estimated $10 total</t>
-  </si>
-  <si>
     <t>extended quantity</t>
   </si>
   <si>
@@ -2440,9 +2491,6 @@
     <t>Ideal total cost</t>
   </si>
   <si>
-    <t>Real extended cost</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2590,9 +2638,6 @@
     <t>https://www.amazon.com/binifiMux-40pcs-0-7mm-Stainless-Inserted/dp/B075ZZD3NN</t>
   </si>
   <si>
-    <t>M4x12mmx1 mm Stainless Steel Round Flat Washer</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Uxcell-a15071400ux0035-M4x12mmx1-Stainless-Washer/dp/B015A39K02</t>
   </si>
   <si>
@@ -2969,6 +3014,45 @@
   </si>
   <si>
     <t xml:space="preserve">minimum buy length </t>
+  </si>
+  <si>
+    <t>12mm Diameter M5 Steel Threaded ball</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32829474364.html?spm=a2g0o.detail.1000060.1.24dd1a2fCW9QQG&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.146401.0&amp;scm_id=1007.13339.146401.0&amp;scm-url=1007.13339.146401.0&amp;pvid=fb0378aa-b2ee-493b-bc08-703f824f9585</t>
+  </si>
+  <si>
+    <t>shipping estimated Also see https://www.aliexpress.com/item/32803807288.html?spm=a2g0o.productlist.0.0.149d4ff7s7RwzB&amp;algo_pvid=f7830b08-063b-4b36-875e-e9326665086b&amp;algo_expid=f7830b08-063b-4b36-875e-e9326665086b-13&amp;btsid=5ec4e1b3-a50d-4882-ad72-99a1d48367b4&amp;ws_ab_test=searchweb0_0,searchweb201602_6,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>bolt depot</t>
+  </si>
+  <si>
+    <t>https://www.boltdepot.com/Metric_socket_flat_head_Class_12.9_alloy_steel_black_oxide_finish_12mm_x_1.75mm.aspx</t>
+  </si>
+  <si>
+    <t>Shipping estimated $5 total</t>
+  </si>
+  <si>
+    <t>washer</t>
+  </si>
+  <si>
+    <t>Get out of center offcut of part A-0001</t>
+  </si>
+  <si>
+    <t>http://vi.vipr.ebaydesc.com/ws/eBayISAPI.dll?ViewItemDescV4&amp;item=121878416095&amp;t=1577981882000&amp;tid=10&amp;category=119111&amp;seller=emovendo&amp;excSoj=1&amp;excTrk=1&amp;lsite=0&amp;ittenable=true&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=0</t>
+  </si>
+  <si>
+    <t>1/2" x 1/8" Disc - SmCo - Samarium Cobalt Rare Earth Magnet, Grade N30</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>Remainnig  SPEND cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </t>
   </si>
 </sst>
 </file>
@@ -2979,9 +3063,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3060,6 +3144,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3216,7 +3313,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3350,15 +3447,21 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3370,6 +3473,285 @@
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="163">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4700,285 +5082,6 @@
         <i/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5009,7 +5112,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5199,11 +5301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163801728"/>
-        <c:axId val="163800192"/>
+        <c:axId val="177727360"/>
+        <c:axId val="177728896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="163801728"/>
+        <c:axId val="177727360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5223,13 +5325,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163800192"/>
+        <c:crossAx val="177728896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163800192"/>
+        <c:axId val="177728896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,14 +5342,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163801728"/>
+        <c:crossAx val="177727360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5598,41 +5699,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R635" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R635" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <autoFilter ref="A3:R635"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Part Number" dataDxfId="160"/>
-    <tableColumn id="2" name="Description" dataDxfId="159"/>
-    <tableColumn id="3" name="Supplier" dataDxfId="158"/>
-    <tableColumn id="4" name="Cost " dataDxfId="157" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="shipping" dataDxfId="156" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Tax" dataDxfId="155" dataCellStyle="Currency">
+    <tableColumn id="1" name="Part Number" dataDxfId="17"/>
+    <tableColumn id="2" name="Description" dataDxfId="16"/>
+    <tableColumn id="3" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="4" name="Cost " dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="shipping" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Tax" dataDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>9%*Table1[[#This Row],[Cost ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Web-link" dataDxfId="154"/>
-    <tableColumn id="9" name="Minimum order quantity" dataDxfId="153"/>
-    <tableColumn id="8" name="Comments" dataDxfId="152"/>
-    <tableColumn id="10" name="extended quantity" dataDxfId="151" dataCellStyle="Currency">
+    <tableColumn id="7" name="Web-link" dataDxfId="11"/>
+    <tableColumn id="9" name="Minimum order quantity" dataDxfId="10"/>
+    <tableColumn id="8" name="Comments" dataDxfId="9"/>
+    <tableColumn id="10" name="extended quantity" dataDxfId="8" dataCellStyle="Currency">
       <calculatedColumnFormula>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Ideal cost" dataDxfId="150" dataCellStyle="Currency">
+    <tableColumn id="15" name="Ideal cost" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name=" " dataDxfId="149" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="quantity on-hand" dataDxfId="148" dataCellStyle="Currency"/>
-    <tableColumn id="11" name="Order quantity" dataDxfId="147" dataCellStyle="Currency">
+    <tableColumn id="16" name=" " dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="17" name="quantity on-hand" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="11" name="Order quantity" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="leftover material" dataDxfId="146" dataCellStyle="Currency">
+    <tableColumn id="12" name="leftover material" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Remaining Extended cost" dataDxfId="145" dataCellStyle="Currency">
+    <tableColumn id="13" name="Remaining Extended cost" dataDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Cost of excess material" dataDxfId="144" dataCellStyle="Currency">
+    <tableColumn id="14" name="Cost of excess material" dataDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="comments2" dataDxfId="143" dataCellStyle="Currency"/>
+    <tableColumn id="19" name="comments2" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5928,8 +6029,8 @@
   <dimension ref="A1:T453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D231" sqref="D231"/>
+      <pane ySplit="3" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,58 +6050,58 @@
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T1" s="50">
         <f>SUM(T4:T443)</f>
-        <v>427.65045204029309</v>
+        <v>397.48441204029308</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>669</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="59" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>639</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>970</v>
-      </c>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="58" t="s">
+        <v>965</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>642</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="58" t="s">
         <v>667</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>706</v>
-      </c>
-      <c r="I2" s="53" t="s">
+        <v>703</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>668</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="T2" s="53" t="s">
-        <v>973</v>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="T2" s="58" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="53"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="43"/>
       <c r="I3" s="9">
         <v>0</v>
@@ -6032,7 +6133,7 @@
       <c r="R3" s="9">
         <v>9</v>
       </c>
-      <c r="T3" s="53"/>
+      <c r="T3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -6054,7 +6155,7 @@
       </c>
       <c r="H4" s="44">
         <f>SUM(H5,H68,H93,H131,H134,H197,H206,H215,H226,H236)</f>
-        <v>1991.2497646415752</v>
+        <v>2009.5757246415753</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I5" si="1">IF($A4="",I3,
@@ -6658,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(C12="","",VLOOKUP(C12,Table1[#All],2,FALSE))</f>
@@ -6722,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>12</v>
@@ -6859,7 +6960,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>28</v>
@@ -6868,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF(C15="","",VLOOKUP(C15,Table1[#All],2,FALSE))</f>
@@ -7214,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F20" s="1" t="str">
         <f>IF(C20="","",VLOOKUP(C20,Table1[#All],2,FALSE))</f>
@@ -7278,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>35</v>
@@ -7287,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF(C21="","",VLOOKUP(C21,Table1[#All],2,FALSE))</f>
@@ -7418,7 +7519,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>28</v>
@@ -7427,7 +7528,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F23" s="1" t="str">
         <f>IF(C23="","",VLOOKUP(C23,Table1[#All],2,FALSE))</f>
@@ -7555,7 +7656,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="2">
@@ -7693,7 +7794,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>10</v>
@@ -7772,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F28" s="1" t="str">
         <f>IF(C28="","",VLOOKUP(C28,Table1[#All],2,FALSE))</f>
@@ -7836,7 +7937,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C29" s="41" t="s">
         <v>69</v>
@@ -7845,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F29" s="1" t="str">
         <f>IF(C29="","",VLOOKUP(C29,Table1[#All],2,FALSE))</f>
@@ -7979,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>28</v>
@@ -7988,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F31" s="1" t="str">
         <f>IF(C31="","",VLOOKUP(C31,Table1[#All],2,FALSE))</f>
@@ -8056,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>70</v>
@@ -8130,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>70</v>
@@ -8264,7 +8365,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="2">
@@ -8402,7 +8503,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>10</v>
@@ -8481,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F38" s="1" t="str">
         <f>IF(C38="","",VLOOKUP(C38,Table1[#All],2,FALSE))</f>
@@ -8545,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>69</v>
@@ -8554,7 +8655,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F39" s="1" t="str">
         <f>IF(C39="","",VLOOKUP(C39,Table1[#All],2,FALSE))</f>
@@ -8688,7 +8789,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>28</v>
@@ -8762,7 +8863,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>70</v>
@@ -8836,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>70</v>
@@ -9051,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F46" s="1" t="str">
         <f>IF(C46="","",VLOOKUP(C46,Table1[#All],2,FALSE))</f>
@@ -9194,7 +9295,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>16</v>
@@ -9203,7 +9304,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F48" s="1" t="str">
         <f>IF(C48="","",VLOOKUP(C48,Table1[#All],2,FALSE))</f>
@@ -9276,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F49" s="1" t="str">
         <f>IF(C49="","",VLOOKUP(C49,Table1[#All],2,FALSE))</f>
@@ -9410,7 +9511,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>28</v>
@@ -9419,7 +9520,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F51" s="1" t="str">
         <f>IF(C51="","",VLOOKUP(C51,Table1[#All],2,FALSE))</f>
@@ -9616,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F54" s="1" t="str">
         <f>IF(C54="","",VLOOKUP(C54,Table1[#All],2,FALSE))</f>
@@ -9751,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>36</v>
@@ -9760,7 +9861,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F56" s="1" t="str">
         <f>IF(C56="","",VLOOKUP(C56,Table1[#All],2,FALSE))</f>
@@ -9833,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F57" s="1" t="str">
         <f>IF(C57="","",VLOOKUP(C57,Table1[#All],2,FALSE))</f>
@@ -9967,7 +10068,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C59" s="41" t="s">
         <v>28</v>
@@ -9976,7 +10077,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F59" s="1" t="str">
         <f>IF(C59="","",VLOOKUP(C59,Table1[#All],2,FALSE))</f>
@@ -10223,7 +10324,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C63" s="41" t="s">
         <v>18</v>
@@ -10232,7 +10333,7 @@
         <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F63" s="1" t="str">
         <f>IF(C63="","",VLOOKUP(C63,Table1[#All],2,FALSE))</f>
@@ -10296,7 +10397,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C64" s="41" t="s">
         <v>41</v>
@@ -10305,7 +10406,7 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F64" s="1" t="str">
         <f>IF(C64="","",VLOOKUP(C64,Table1[#All],2,FALSE))</f>
@@ -10369,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C65" s="41" t="s">
         <v>40</v>
@@ -10378,7 +10479,7 @@
         <v>26</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F65" s="1" t="str">
         <f>IF(C65="","",VLOOKUP(C65,Table1[#All],2,FALSE))</f>
@@ -10442,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>44</v>
@@ -10584,7 +10685,7 @@
       </c>
       <c r="H68" s="45">
         <f>G68*SUM(H69,H71,H78,H86,H87,H89,H90,H91)</f>
-        <v>61.327482395238086</v>
+        <v>40.947482395238083</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" si="14"/>
@@ -10636,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>23</v>
@@ -10645,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F69" s="1" t="str">
         <f>IF(C69="","",VLOOKUP(C69,Table1[#All],2,FALSE))</f>
@@ -10657,7 +10758,7 @@
       </c>
       <c r="H69" s="45">
         <f>IF(C69&lt;&gt;"",(VLOOKUP(C69,part_details,4,FALSE)+VLOOKUP(C69,part_details,5,FALSE)+VLOOKUP(C69,part_details,6,FALSE))*'Multi-level BOM'!D69,"")</f>
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" si="14"/>
@@ -10701,7 +10802,7 @@
       </c>
       <c r="T69" s="3">
         <f t="shared" si="25"/>
-        <v>20.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -10912,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73="","",VLOOKUP(C73,Table1[#All],2,FALSE))</f>
@@ -10976,7 +11077,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>37</v>
@@ -10985,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(C74="","",VLOOKUP(C74,Table1[#All],2,FALSE))</f>
@@ -11119,7 +11220,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>28</v>
@@ -11128,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F76" s="1" t="str">
         <f>IF(C76="","",VLOOKUP(C76,Table1[#All],2,FALSE))</f>
@@ -11466,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F81" s="1" t="str">
         <f>IF(C81="","",VLOOKUP(C81,Table1[#All],2,FALSE))</f>
@@ -11530,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>38</v>
@@ -11539,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F82" s="1" t="str">
         <f>IF(C82="","",VLOOKUP(C82,Table1[#All],2,FALSE))</f>
@@ -11673,7 +11774,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>28</v>
@@ -11682,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F84" s="1" t="str">
         <f>IF(C84="","",VLOOKUP(C84,Table1[#All],2,FALSE))</f>
@@ -11797,7 +11898,7 @@
         <v>2</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>22</v>
@@ -11806,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F86" s="1" t="str">
         <f>IF(C86="","",VLOOKUP(C86,Table1[#All],2,FALSE))</f>
@@ -11870,7 +11971,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>27</v>
@@ -11999,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>39</v>
@@ -12069,7 +12170,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>41</v>
@@ -12139,7 +12240,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>40</v>
@@ -12272,7 +12373,7 @@
       </c>
       <c r="H93" s="45">
         <f>G93*SUM(H94:H96,H99)</f>
-        <v>348.67787869230767</v>
+        <v>343.78485869230769</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" si="14"/>
@@ -12464,7 +12565,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
@@ -12473,7 +12574,7 @@
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F96" s="1" t="str">
         <f>IF(C96="","",VLOOKUP(C96,Table1[#All],2,FALSE))</f>
@@ -12485,7 +12586,7 @@
       </c>
       <c r="H96" s="45">
         <f>IF(C96&lt;&gt;"",(VLOOKUP(C96,part_details,4,FALSE)+VLOOKUP(C96,part_details,5,FALSE)+VLOOKUP(C96,part_details,6,FALSE))*'Multi-level BOM'!D96,"")</f>
-        <v>11.251619999999999</v>
+        <v>6.3585999999999991</v>
       </c>
       <c r="I96" s="4">
         <f t="shared" si="14"/>
@@ -12529,7 +12630,7 @@
       </c>
       <c r="T96" s="3">
         <f t="shared" si="49"/>
-        <v>11.251619999999999</v>
+        <v>6.3585999999999991</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -12651,10 +12752,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="str">
         <f>IF(C99="","",VLOOKUP(C99,Table1[#All],2,FALSE))</f>
@@ -12677,7 +12778,7 @@
       </c>
       <c r="K99" s="4">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="4">
         <f t="shared" si="52"/>
@@ -12717,7 +12818,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>71</v>
@@ -12731,7 +12832,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" ref="G100:G129" si="53">PRODUCT(I100:R100)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="44">
         <f>IF(C100&lt;&gt;"",(VLOOKUP(C100,part_details,4,FALSE)+VLOOKUP(C100,part_details,5,FALSE)+VLOOKUP(C100,part_details,6,FALSE))*'Multi-level BOM'!D100,"")</f>
@@ -12747,7 +12848,7 @@
       </c>
       <c r="K100" s="4">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="52"/>
@@ -12787,7 +12888,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>72</v>
@@ -12801,7 +12902,7 @@
       </c>
       <c r="G101" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H101" s="44">
         <f>IF(C101&lt;&gt;"",(VLOOKUP(C101,part_details,4,FALSE)+VLOOKUP(C101,part_details,5,FALSE)+VLOOKUP(C101,part_details,6,FALSE))*'Multi-level BOM'!D101,"")</f>
@@ -12821,7 +12922,7 @@
       </c>
       <c r="K101" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="54"/>
@@ -12861,7 +12962,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>32</v>
@@ -12875,7 +12976,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H102" s="44">
         <f>IF(C102&lt;&gt;"",(VLOOKUP(C102,part_details,4,FALSE)+VLOOKUP(C102,part_details,5,FALSE)+VLOOKUP(C102,part_details,6,FALSE))*'Multi-level BOM'!D102,"")</f>
@@ -12891,7 +12992,7 @@
       </c>
       <c r="K102" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" si="54"/>
@@ -12931,7 +13032,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>68</v>
@@ -12945,7 +13046,7 @@
       </c>
       <c r="G103" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H103" s="44">
         <f>IF(C103&lt;&gt;"",(VLOOKUP(C103,part_details,4,FALSE)+VLOOKUP(C103,part_details,5,FALSE)+VLOOKUP(C103,part_details,6,FALSE))*'Multi-level BOM'!D103,"")</f>
@@ -12961,7 +13062,7 @@
       </c>
       <c r="K103" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" si="54"/>
@@ -13001,7 +13102,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
@@ -13015,7 +13116,7 @@
       </c>
       <c r="G104" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H104" s="44">
         <f>IF(C104&lt;&gt;"",(VLOOKUP(C104,part_details,4,FALSE)+VLOOKUP(C104,part_details,5,FALSE)+VLOOKUP(C104,part_details,6,FALSE))*'Multi-level BOM'!D104,"")</f>
@@ -13031,7 +13132,7 @@
       </c>
       <c r="K104" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" si="54"/>
@@ -13071,7 +13172,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>71</v>
@@ -13085,7 +13186,7 @@
       </c>
       <c r="G105" s="2">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="44">
         <f>IF(C105&lt;&gt;"",(VLOOKUP(C105,part_details,4,FALSE)+VLOOKUP(C105,part_details,5,FALSE)+VLOOKUP(C105,part_details,6,FALSE))*'Multi-level BOM'!D105,"")</f>
@@ -13101,7 +13202,7 @@
       </c>
       <c r="K105" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="4">
         <f t="shared" si="54"/>
@@ -13141,7 +13242,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>72</v>
@@ -13155,7 +13256,7 @@
       </c>
       <c r="G106" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H106" s="44">
         <f>IF(C106&lt;&gt;"",(VLOOKUP(C106,part_details,4,FALSE)+VLOOKUP(C106,part_details,5,FALSE)+VLOOKUP(C106,part_details,6,FALSE))*'Multi-level BOM'!D106,"")</f>
@@ -13171,7 +13272,7 @@
       </c>
       <c r="K106" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="4">
         <f t="shared" si="54"/>
@@ -13211,7 +13312,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>32</v>
@@ -13225,7 +13326,7 @@
       </c>
       <c r="G107" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H107" s="44">
         <f>IF(C107&lt;&gt;"",(VLOOKUP(C107,part_details,4,FALSE)+VLOOKUP(C107,part_details,5,FALSE)+VLOOKUP(C107,part_details,6,FALSE))*'Multi-level BOM'!D107,"")</f>
@@ -13241,7 +13342,7 @@
       </c>
       <c r="K107" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="4">
         <f t="shared" si="54"/>
@@ -13281,7 +13382,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>68</v>
@@ -13295,7 +13396,7 @@
       </c>
       <c r="G108" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H108" s="44">
         <f>IF(C108&lt;&gt;"",(VLOOKUP(C108,part_details,4,FALSE)+VLOOKUP(C108,part_details,5,FALSE)+VLOOKUP(C108,part_details,6,FALSE))*'Multi-level BOM'!D108,"")</f>
@@ -13311,7 +13412,7 @@
       </c>
       <c r="K108" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="4">
         <f t="shared" si="54"/>
@@ -13351,7 +13452,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
@@ -13365,7 +13466,7 @@
       </c>
       <c r="G109" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H109" s="44">
         <f>IF(C109&lt;&gt;"",(VLOOKUP(C109,part_details,4,FALSE)+VLOOKUP(C109,part_details,5,FALSE)+VLOOKUP(C109,part_details,6,FALSE))*'Multi-level BOM'!D109,"")</f>
@@ -13381,7 +13482,7 @@
       </c>
       <c r="K109" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109" s="4">
         <f t="shared" si="54"/>
@@ -13421,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>71</v>
@@ -13435,7 +13536,7 @@
       </c>
       <c r="G110" s="2">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="44">
         <f>IF(C110&lt;&gt;"",(VLOOKUP(C110,part_details,4,FALSE)+VLOOKUP(C110,part_details,5,FALSE)+VLOOKUP(C110,part_details,6,FALSE))*'Multi-level BOM'!D110,"")</f>
@@ -13451,7 +13552,7 @@
       </c>
       <c r="K110" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="4">
         <f t="shared" si="54"/>
@@ -13491,7 +13592,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>72</v>
@@ -13505,7 +13606,7 @@
       </c>
       <c r="G111" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111" s="44">
         <f>IF(C111&lt;&gt;"",(VLOOKUP(C111,part_details,4,FALSE)+VLOOKUP(C111,part_details,5,FALSE)+VLOOKUP(C111,part_details,6,FALSE))*'Multi-level BOM'!D111,"")</f>
@@ -13521,7 +13622,7 @@
       </c>
       <c r="K111" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="4">
         <f t="shared" si="54"/>
@@ -13561,7 +13662,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>32</v>
@@ -13575,7 +13676,7 @@
       </c>
       <c r="G112" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H112" s="44">
         <f>IF(C112&lt;&gt;"",(VLOOKUP(C112,part_details,4,FALSE)+VLOOKUP(C112,part_details,5,FALSE)+VLOOKUP(C112,part_details,6,FALSE))*'Multi-level BOM'!D112,"")</f>
@@ -13591,7 +13692,7 @@
       </c>
       <c r="K112" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="4">
         <f t="shared" si="54"/>
@@ -13631,7 +13732,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>68</v>
@@ -13645,7 +13746,7 @@
       </c>
       <c r="G113" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H113" s="44">
         <f>IF(C113&lt;&gt;"",(VLOOKUP(C113,part_details,4,FALSE)+VLOOKUP(C113,part_details,5,FALSE)+VLOOKUP(C113,part_details,6,FALSE))*'Multi-level BOM'!D113,"")</f>
@@ -13661,7 +13762,7 @@
       </c>
       <c r="K113" s="4">
         <f t="shared" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="4">
         <f t="shared" si="54"/>
@@ -13701,7 +13802,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
@@ -13715,7 +13816,7 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H114" s="44">
         <f>IF(C114&lt;&gt;"",(VLOOKUP(C114,part_details,4,FALSE)+VLOOKUP(C114,part_details,5,FALSE)+VLOOKUP(C114,part_details,6,FALSE))*'Multi-level BOM'!D114,"")</f>
@@ -13735,7 +13836,7 @@
       </c>
       <c r="K114" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="4">
         <f t="shared" si="55"/>
@@ -13775,7 +13876,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>73</v>
@@ -13789,7 +13890,7 @@
       </c>
       <c r="G115" s="2">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="44">
         <f>IF(C115&lt;&gt;"",(VLOOKUP(C115,part_details,4,FALSE)+VLOOKUP(C115,part_details,5,FALSE)+VLOOKUP(C115,part_details,6,FALSE))*'Multi-level BOM'!D115,"")</f>
@@ -13805,7 +13906,7 @@
       </c>
       <c r="K115" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="4">
         <f t="shared" si="55"/>
@@ -13845,7 +13946,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>72</v>
@@ -13859,7 +13960,7 @@
       </c>
       <c r="G116" s="2">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H116" s="44">
         <f>IF(C116&lt;&gt;"",(VLOOKUP(C116,part_details,4,FALSE)+VLOOKUP(C116,part_details,5,FALSE)+VLOOKUP(C116,part_details,6,FALSE))*'Multi-level BOM'!D116,"")</f>
@@ -13875,7 +13976,7 @@
       </c>
       <c r="K116" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" s="4">
         <f t="shared" si="55"/>
@@ -13915,7 +14016,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>32</v>
@@ -13929,7 +14030,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" s="44">
         <f>IF(C117&lt;&gt;"",(VLOOKUP(C117,part_details,4,FALSE)+VLOOKUP(C117,part_details,5,FALSE)+VLOOKUP(C117,part_details,6,FALSE))*'Multi-level BOM'!D117,"")</f>
@@ -13945,7 +14046,7 @@
       </c>
       <c r="K117" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" s="4">
         <f t="shared" si="55"/>
@@ -13985,7 +14086,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>68</v>
@@ -13999,7 +14100,7 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H118" s="44">
         <f>IF(C118&lt;&gt;"",(VLOOKUP(C118,part_details,4,FALSE)+VLOOKUP(C118,part_details,5,FALSE)+VLOOKUP(C118,part_details,6,FALSE))*'Multi-level BOM'!D118,"")</f>
@@ -14015,7 +14116,7 @@
       </c>
       <c r="K118" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="4">
         <f t="shared" si="55"/>
@@ -14055,7 +14156,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>33</v>
@@ -14069,7 +14170,7 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H119" s="44">
         <f>IF(C119&lt;&gt;"",(VLOOKUP(C119,part_details,4,FALSE)+VLOOKUP(C119,part_details,5,FALSE)+VLOOKUP(C119,part_details,6,FALSE))*'Multi-level BOM'!D119,"")</f>
@@ -14085,7 +14186,7 @@
       </c>
       <c r="K119" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="4">
         <f t="shared" si="55"/>
@@ -14125,7 +14226,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>73</v>
@@ -14139,7 +14240,7 @@
       </c>
       <c r="G120" s="2">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="44">
         <f>IF(C120&lt;&gt;"",(VLOOKUP(C120,part_details,4,FALSE)+VLOOKUP(C120,part_details,5,FALSE)+VLOOKUP(C120,part_details,6,FALSE))*'Multi-level BOM'!D120,"")</f>
@@ -14155,7 +14256,7 @@
       </c>
       <c r="K120" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" s="4">
         <f t="shared" si="55"/>
@@ -14195,7 +14296,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>72</v>
@@ -14209,7 +14310,7 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H121" s="44">
         <f>IF(C121&lt;&gt;"",(VLOOKUP(C121,part_details,4,FALSE)+VLOOKUP(C121,part_details,5,FALSE)+VLOOKUP(C121,part_details,6,FALSE))*'Multi-level BOM'!D121,"")</f>
@@ -14225,7 +14326,7 @@
       </c>
       <c r="K121" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="4">
         <f t="shared" si="55"/>
@@ -14265,7 +14366,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>32</v>
@@ -14279,7 +14380,7 @@
       </c>
       <c r="G122" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H122" s="44">
         <f>IF(C122&lt;&gt;"",(VLOOKUP(C122,part_details,4,FALSE)+VLOOKUP(C122,part_details,5,FALSE)+VLOOKUP(C122,part_details,6,FALSE))*'Multi-level BOM'!D122,"")</f>
@@ -14295,7 +14396,7 @@
       </c>
       <c r="K122" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="4">
         <f t="shared" si="55"/>
@@ -14335,7 +14436,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>68</v>
@@ -14349,7 +14450,7 @@
       </c>
       <c r="G123" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H123" s="44">
         <f>IF(C123&lt;&gt;"",(VLOOKUP(C123,part_details,4,FALSE)+VLOOKUP(C123,part_details,5,FALSE)+VLOOKUP(C123,part_details,6,FALSE))*'Multi-level BOM'!D123,"")</f>
@@ -14365,7 +14466,7 @@
       </c>
       <c r="K123" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="4">
         <f t="shared" si="55"/>
@@ -14405,7 +14506,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
@@ -14419,7 +14520,7 @@
       </c>
       <c r="G124" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H124" s="44">
         <f>IF(C124&lt;&gt;"",(VLOOKUP(C124,part_details,4,FALSE)+VLOOKUP(C124,part_details,5,FALSE)+VLOOKUP(C124,part_details,6,FALSE))*'Multi-level BOM'!D124,"")</f>
@@ -14435,7 +14536,7 @@
       </c>
       <c r="K124" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="4">
         <f t="shared" si="55"/>
@@ -14475,7 +14576,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>73</v>
@@ -14489,7 +14590,7 @@
       </c>
       <c r="G125" s="2">
         <f t="shared" si="53"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="44">
         <f>IF(C125&lt;&gt;"",(VLOOKUP(C125,part_details,4,FALSE)+VLOOKUP(C125,part_details,5,FALSE)+VLOOKUP(C125,part_details,6,FALSE))*'Multi-level BOM'!D125,"")</f>
@@ -14505,7 +14606,7 @@
       </c>
       <c r="K125" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="4">
         <f t="shared" si="55"/>
@@ -14545,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>72</v>
@@ -14559,7 +14660,7 @@
       </c>
       <c r="G126" s="2">
         <f t="shared" si="53"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" s="44">
         <f>IF(C126&lt;&gt;"",(VLOOKUP(C126,part_details,4,FALSE)+VLOOKUP(C126,part_details,5,FALSE)+VLOOKUP(C126,part_details,6,FALSE))*'Multi-level BOM'!D126,"")</f>
@@ -14575,7 +14676,7 @@
       </c>
       <c r="K126" s="4">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="4">
         <f t="shared" si="55"/>
@@ -14615,7 +14716,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>32</v>
@@ -14629,7 +14730,7 @@
       </c>
       <c r="G127" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H127" s="44">
         <f>IF(C127&lt;&gt;"",(VLOOKUP(C127,part_details,4,FALSE)+VLOOKUP(C127,part_details,5,FALSE)+VLOOKUP(C127,part_details,6,FALSE))*'Multi-level BOM'!D127,"")</f>
@@ -14649,7 +14750,7 @@
       </c>
       <c r="K127" s="4">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="4">
         <f t="shared" si="56"/>
@@ -14689,7 +14790,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>68</v>
@@ -14703,7 +14804,7 @@
       </c>
       <c r="G128" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H128" s="44">
         <f>IF(C128&lt;&gt;"",(VLOOKUP(C128,part_details,4,FALSE)+VLOOKUP(C128,part_details,5,FALSE)+VLOOKUP(C128,part_details,6,FALSE))*'Multi-level BOM'!D128,"")</f>
@@ -14723,7 +14824,7 @@
       </c>
       <c r="K128" s="4">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="4">
         <f t="shared" si="57"/>
@@ -14763,7 +14864,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>33</v>
@@ -14777,7 +14878,7 @@
       </c>
       <c r="G129" s="2">
         <f t="shared" si="53"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H129" s="44">
         <f>IF(C129&lt;&gt;"",(VLOOKUP(C129,part_details,4,FALSE)+VLOOKUP(C129,part_details,5,FALSE)+VLOOKUP(C129,part_details,6,FALSE))*'Multi-level BOM'!D129,"")</f>
@@ -14797,7 +14898,7 @@
       </c>
       <c r="K129" s="4">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" s="4">
         <f t="shared" si="58"/>
@@ -14856,7 +14957,7 @@
       </c>
       <c r="K130" s="4">
         <f t="shared" si="59"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" si="59"/>
@@ -14896,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>21</v>
@@ -14905,7 +15006,7 @@
         <v>6</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F131" s="1" t="str">
         <f>IF(C131="","",VLOOKUP(C131,Table1[#All],2,FALSE))</f>
@@ -14917,7 +15018,7 @@
       </c>
       <c r="H131" s="47">
         <f>IF(C131&lt;&gt;"",(VLOOKUP(C131,part_details,4,FALSE)+VLOOKUP(C131,part_details,5,FALSE)+VLOOKUP(C131,part_details,6,FALSE))*'Multi-level BOM'!D131,"")</f>
-        <v>11.251619999999999</v>
+        <v>6.3585999999999991</v>
       </c>
       <c r="I131" s="4">
         <f t="shared" ref="I131:R131" si="60">IF($A131="",I130,
@@ -14965,7 +15066,7 @@
       </c>
       <c r="T131" s="3">
         <f t="shared" si="49"/>
-        <v>11.251619999999999</v>
+        <v>6.3585999999999991</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -15087,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
@@ -15158,7 +15259,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
@@ -15225,7 +15326,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -15234,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F136" s="1" t="str">
         <f>IF(C136="","",VLOOKUP(C136,Table1[#All],2,FALSE))</f>
@@ -15308,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F137" s="1" t="str">
         <f>IF(C137="","",VLOOKUP(C137,Table1[#All],2,FALSE))</f>
@@ -15372,7 +15473,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>24</v>
@@ -15381,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F138" s="1" t="str">
         <f>IF(C138="","",VLOOKUP(C138,Table1[#All],2,FALSE))</f>
@@ -15445,7 +15546,7 @@
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
@@ -15515,7 +15616,7 @@
         <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>67</v>
@@ -15524,7 +15625,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F140" s="1" t="str">
         <f>IF(C140="","",VLOOKUP(C140,Table1[#All],2,FALSE))</f>
@@ -15588,7 +15689,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>47</v>
@@ -15597,11 +15698,11 @@
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F141" s="1" t="str">
         <f>IF(C141="","",VLOOKUP(C141,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G141" s="2">
         <f t="shared" si="65"/>
@@ -15661,7 +15762,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>26</v>
@@ -15670,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F142" s="1" t="str">
         <f>IF(C142="","",VLOOKUP(C142,Table1[#All],2,FALSE))</f>
@@ -15734,7 +15835,7 @@
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>66</v>
@@ -15743,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F143" s="1" t="str">
         <f>IF(C143="","",VLOOKUP(C143,Table1[#All],2,FALSE))</f>
@@ -15807,7 +15908,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>51</v>
@@ -15877,7 +15978,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>32</v>
@@ -15886,7 +15987,7 @@
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F145" s="1" t="str">
         <f>IF(C145="","",VLOOKUP(C145,Table1[#All],2,FALSE))</f>
@@ -15950,7 +16051,7 @@
         <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>68</v>
@@ -15959,7 +16060,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F146" s="1" t="str">
         <f>IF(C146="","",VLOOKUP(C146,Table1[#All],2,FALSE))</f>
@@ -16023,7 +16124,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>33</v>
@@ -16032,7 +16133,7 @@
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F147" s="1" t="str">
         <f>IF(C147="","",VLOOKUP(C147,Table1[#All],2,FALSE))</f>
@@ -16096,7 +16197,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>74</v>
@@ -16170,7 +16271,7 @@
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>51</v>
@@ -16240,7 +16341,7 @@
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>51</v>
@@ -16310,7 +16411,7 @@
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>42</v>
@@ -16319,7 +16420,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F151" s="1" t="str">
         <f>IF(C151="","",VLOOKUP(C151,Table1[#All],2,FALSE))</f>
@@ -16383,13 +16484,13 @@
         <v>3</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F152" s="1" t="str">
         <f>IF(C152="","",VLOOKUP(C152,Table1[#All],2,FALSE))</f>
@@ -16453,7 +16554,7 @@
         <v>3</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>46</v>
@@ -16462,7 +16563,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F153" s="1" t="str">
         <f>IF(C153="","",VLOOKUP(C153,Table1[#All],2,FALSE))</f>
@@ -16530,7 +16631,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>47</v>
@@ -16539,11 +16640,11 @@
         <v>6</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F154" s="1" t="str">
         <f>IF(C154="","",VLOOKUP(C154,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G154" s="2">
         <f t="shared" si="71"/>
@@ -16721,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D157" s="2">
         <v>1</v>
@@ -16792,7 +16893,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -16801,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F158" s="1" t="str">
         <f>IF(C158="","",VLOOKUP(C158,Table1[#All],2,FALSE))</f>
@@ -16875,7 +16976,7 @@
         <v>13</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F159" s="1" t="str">
         <f>IF(C159="","",VLOOKUP(C159,Table1[#All],2,FALSE))</f>
@@ -16943,7 +17044,7 @@
         <v>3</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>24</v>
@@ -16952,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F160" s="1" t="str">
         <f>IF(C160="","",VLOOKUP(C160,Table1[#All],2,FALSE))</f>
@@ -17020,7 +17121,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
@@ -17094,7 +17195,7 @@
         <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>67</v>
@@ -17103,7 +17204,7 @@
         <v>4</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F162" s="1" t="str">
         <f>IF(C162="","",VLOOKUP(C162,Table1[#All],2,FALSE))</f>
@@ -17171,7 +17272,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>47</v>
@@ -17180,11 +17281,11 @@
         <v>4</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F163" s="1" t="str">
         <f>IF(C163="","",VLOOKUP(C163,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G163" s="2">
         <f t="shared" si="76"/>
@@ -17248,7 +17349,7 @@
         <v>3</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>26</v>
@@ -17257,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F164" s="1" t="str">
         <f>IF(C164="","",VLOOKUP(C164,Table1[#All],2,FALSE))</f>
@@ -17325,7 +17426,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>66</v>
@@ -17334,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F165" s="1" t="str">
         <f>IF(C165="","",VLOOKUP(C165,Table1[#All],2,FALSE))</f>
@@ -17402,7 +17503,7 @@
         <v>3</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
@@ -17411,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F166" s="1" t="str">
         <f>IF(C166="","",VLOOKUP(C166,Table1[#All],2,FALSE))</f>
@@ -17479,7 +17580,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>32</v>
@@ -17488,7 +17589,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F167" s="1" t="str">
         <f>IF(C167="","",VLOOKUP(C167,Table1[#All],2,FALSE))</f>
@@ -17556,7 +17657,7 @@
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>68</v>
@@ -17565,7 +17666,7 @@
         <v>3</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F168" s="1" t="str">
         <f>IF(C168="","",VLOOKUP(C168,Table1[#All],2,FALSE))</f>
@@ -17633,7 +17734,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>33</v>
@@ -17642,7 +17743,7 @@
         <v>3</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F169" s="1" t="str">
         <f>IF(C169="","",VLOOKUP(C169,Table1[#All],2,FALSE))</f>
@@ -17710,7 +17811,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>74</v>
@@ -17784,7 +17885,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>31</v>
@@ -17793,7 +17894,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F171" s="1" t="str">
         <f>IF(C171="","",VLOOKUP(C171,Table1[#All],2,FALSE))</f>
@@ -17861,7 +17962,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>42</v>
@@ -17870,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F172" s="1" t="str">
         <f>IF(C172="","",VLOOKUP(C172,Table1[#All],2,FALSE))</f>
@@ -17938,13 +18039,13 @@
         <v>3</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F173" s="1" t="str">
         <f>IF(C173="","",VLOOKUP(C173,Table1[#All],2,FALSE))</f>
@@ -18012,7 +18113,7 @@
         <v>3</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>46</v>
@@ -18021,7 +18122,7 @@
         <v>2</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F174" s="1" t="str">
         <f>IF(C174="","",VLOOKUP(C174,Table1[#All],2,FALSE))</f>
@@ -18089,7 +18190,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>47</v>
@@ -18098,11 +18199,11 @@
         <v>6</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F175" s="1" t="str">
         <f>IF(C175="","",VLOOKUP(C175,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G175" s="2">
         <f>PRODUCT(I175:R175)</f>
@@ -18221,7 +18322,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D177" s="2">
         <v>1</v>
@@ -18292,7 +18393,7 @@
         <v>3</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -18376,7 +18477,7 @@
         <v>13</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F179" s="1" t="str">
         <f>IF(C179="","",VLOOKUP(C179,Table1[#All],2,FALSE))</f>
@@ -18444,7 +18545,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
@@ -18453,7 +18554,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F180" s="1" t="str">
         <f>IF(C180="","",VLOOKUP(C180,Table1[#All],2,FALSE))</f>
@@ -18521,7 +18622,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
@@ -18530,7 +18631,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F181" s="1" t="str">
         <f>IF(C181="","",VLOOKUP(C181,Table1[#All],2,FALSE))</f>
@@ -18598,7 +18699,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>67</v>
@@ -18672,7 +18773,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>47</v>
@@ -18681,11 +18782,11 @@
         <v>4</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F183" s="1" t="str">
         <f>IF(C183="","",VLOOKUP(C183,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G183" s="2">
         <f t="shared" si="102"/>
@@ -18749,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>26</v>
@@ -18758,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F184" s="1" t="str">
         <f>IF(C184="","",VLOOKUP(C184,Table1[#All],2,FALSE))</f>
@@ -18826,7 +18927,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>66</v>
@@ -18835,7 +18936,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F185" s="1" t="str">
         <f>IF(C185="","",VLOOKUP(C185,Table1[#All],2,FALSE))</f>
@@ -18903,7 +19004,7 @@
         <v>3</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>29</v>
@@ -18912,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F186" s="1" t="str">
         <f>IF(C186="","",VLOOKUP(C186,Table1[#All],2,FALSE))</f>
@@ -18980,7 +19081,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>32</v>
@@ -18989,7 +19090,7 @@
         <v>2</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F187" s="1" t="str">
         <f>IF(C187="","",VLOOKUP(C187,Table1[#All],2,FALSE))</f>
@@ -19057,7 +19158,7 @@
         <v>3</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>68</v>
@@ -19066,7 +19167,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F188" s="1" t="str">
         <f>IF(C188="","",VLOOKUP(C188,Table1[#All],2,FALSE))</f>
@@ -19134,7 +19235,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>33</v>
@@ -19143,7 +19244,7 @@
         <v>3</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F189" s="1" t="str">
         <f>IF(C189="","",VLOOKUP(C189,Table1[#All],2,FALSE))</f>
@@ -19211,7 +19312,7 @@
         <v>3</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>74</v>
@@ -19285,7 +19386,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>31</v>
@@ -19294,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F191" s="1" t="str">
         <f>IF(C191="","",VLOOKUP(C191,Table1[#All],2,FALSE))</f>
@@ -19362,7 +19463,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>42</v>
@@ -19371,7 +19472,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F192" s="1" t="str">
         <f>IF(C192="","",VLOOKUP(C192,Table1[#All],2,FALSE))</f>
@@ -19439,13 +19540,13 @@
         <v>3</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F193" s="1" t="str">
         <f>IF(C193="","",VLOOKUP(C193,Table1[#All],2,FALSE))</f>
@@ -19513,7 +19614,7 @@
         <v>3</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>46</v>
@@ -19522,7 +19623,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F194" s="1" t="str">
         <f>IF(C194="","",VLOOKUP(C194,Table1[#All],2,FALSE))</f>
@@ -19590,7 +19691,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>47</v>
@@ -19599,11 +19700,11 @@
         <v>6</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F195" s="1" t="str">
         <f>IF(C195="","",VLOOKUP(C195,Table1[#All],2,FALSE))</f>
-        <v>M4x12mmx1 mm Stainless Steel Round Flat Washer</v>
+        <v xml:space="preserve">M4x12mmx1 mm Stainless Steel Round Flat Washer </v>
       </c>
       <c r="G195" s="2">
         <f>PRODUCT(I195:R195)</f>
@@ -19722,7 +19823,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D197" s="2">
         <v>1</v>
@@ -19737,7 +19838,7 @@
       </c>
       <c r="H197" s="47">
         <f>G197*SUM(H198:H204)</f>
-        <v>183.28210000000001</v>
+        <v>231.77409999999998</v>
       </c>
       <c r="I197" s="4">
         <f t="shared" si="118"/>
@@ -19789,7 +19890,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>43</v>
@@ -19859,19 +19960,25 @@
         <v>2</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>820</v>
+        <v>816</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" s="2">
+        <v>36</v>
       </c>
       <c r="F199" s="1" t="str">
         <f>IF(C199="","",VLOOKUP(C199,Table1[#All],2,FALSE))</f>
-        <v/>
+        <v>1/2" x 1/8" Disc - SmCo - Samarium Cobalt Rare Earth Magnet, Grade N30</v>
       </c>
       <c r="G199" s="2">
         <f>PRODUCT(I199:R199)</f>
-        <v>0</v>
-      </c>
-      <c r="H199" s="45" t="str">
+        <v>36</v>
+      </c>
+      <c r="H199" s="45">
         <f>IF(C199&lt;&gt;"",(VLOOKUP(C199,part_details,4,FALSE)+VLOOKUP(C199,part_details,5,FALSE)+VLOOKUP(C199,part_details,6,FALSE))*'Multi-level BOM'!D199,"")</f>
-        <v/>
+        <v>48.491999999999997</v>
       </c>
       <c r="I199" s="4">
         <f t="shared" si="118"/>
@@ -19883,7 +19990,7 @@
       </c>
       <c r="K199" s="4">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L199" s="4">
         <f t="shared" si="118"/>
@@ -19923,7 +20030,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D200" s="2">
         <v>1</v>
@@ -19994,7 +20101,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D201" s="2">
         <v>3</v>
@@ -20065,7 +20172,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>55</v>
@@ -20139,7 +20246,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>56</v>
@@ -20213,7 +20320,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>57</v>
@@ -20342,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D206" s="2">
         <v>1</v>
@@ -20413,7 +20520,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>58</v>
@@ -20487,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>59</v>
@@ -20561,7 +20668,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>60</v>
@@ -20930,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D215" s="2">
         <v>1</v>
@@ -21001,7 +21108,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>45</v>
@@ -21075,7 +21182,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>45</v>
@@ -21149,7 +21256,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>45</v>
@@ -21223,7 +21330,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>45</v>
@@ -21294,7 +21401,7 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B220" s="34" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F220" s="1" t="str">
         <f>IF(C220="","",VLOOKUP(C220,Table1[#All],2,FALSE))</f>
@@ -21359,7 +21466,7 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B221" s="34" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G221" s="2">
         <f t="shared" si="136"/>
@@ -21420,7 +21527,7 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B222" s="34" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G222" s="2">
         <f t="shared" si="136"/>
@@ -21481,7 +21588,7 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B223" s="34" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D223" s="2">
         <v>4</v>
@@ -21545,7 +21652,7 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B224" s="34" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G224" s="2">
         <f t="shared" si="136"/>
@@ -21668,7 +21775,7 @@
         <v>1</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D226" s="2">
         <v>1</v>
@@ -21739,7 +21846,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>48</v>
@@ -21813,7 +21920,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>49</v>
@@ -21891,7 +21998,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>50</v>
@@ -21965,7 +22072,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C230" s="35" t="s">
         <v>50</v>
@@ -22039,7 +22146,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>52</v>
@@ -22113,7 +22220,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>54</v>
@@ -22187,7 +22294,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>54</v>
@@ -22261,7 +22368,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>53</v>
@@ -22469,7 +22576,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>61</v>
@@ -22543,7 +22650,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>62</v>
@@ -22617,7 +22724,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>63</v>
@@ -22626,7 +22733,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F239" s="1" t="str">
         <f>IF(C239="","",VLOOKUP(C239,Table1[#All],2,FALSE))</f>
@@ -22694,7 +22801,7 @@
         <v>2</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>64</v>
@@ -31472,529 +31579,529 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B14 B24 B16:B22 B60:B63 B52:B57 B77:B83 B85:B89 B156 B236:B445 B196:B203 B205:B225 B45:B49 B138:B150 B171 B191 B65:B75 B91:B104 B130:B136">
-    <cfRule type="expression" dxfId="142" priority="166">
+    <cfRule type="expression" dxfId="162" priority="166">
       <formula>IF(A5=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="167">
+    <cfRule type="expression" dxfId="161" priority="167">
       <formula>IF(A5=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="168">
+    <cfRule type="expression" dxfId="160" priority="168">
       <formula>IF(A5=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="expression" dxfId="139" priority="160">
+    <cfRule type="expression" dxfId="159" priority="160">
       <formula>IF(A137=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="161">
+    <cfRule type="expression" dxfId="158" priority="161">
       <formula>IF(A137=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="162">
+    <cfRule type="expression" dxfId="157" priority="162">
       <formula>IF(A137=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:B158 B160:B161 B166:B167 B176 B169">
-    <cfRule type="expression" dxfId="136" priority="157">
+    <cfRule type="expression" dxfId="156" priority="157">
       <formula>IF(A157=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="158">
+    <cfRule type="expression" dxfId="155" priority="158">
       <formula>IF(A157=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="159">
+    <cfRule type="expression" dxfId="154" priority="159">
       <formula>IF(A157=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="expression" dxfId="133" priority="154">
+    <cfRule type="expression" dxfId="153" priority="154">
       <formula>IF(A159=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="155">
+    <cfRule type="expression" dxfId="152" priority="155">
       <formula>IF(A159=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="156">
+    <cfRule type="expression" dxfId="151" priority="156">
       <formula>IF(A159=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B178 B180:B181 B186:B187 B189">
-    <cfRule type="expression" dxfId="130" priority="148">
+    <cfRule type="expression" dxfId="150" priority="148">
       <formula>IF(A177=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="149">
+    <cfRule type="expression" dxfId="149" priority="149">
       <formula>IF(A177=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="150">
+    <cfRule type="expression" dxfId="148" priority="150">
       <formula>IF(A177=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="127" priority="145">
+    <cfRule type="expression" dxfId="147" priority="145">
       <formula>IF(A179=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="146">
+    <cfRule type="expression" dxfId="146" priority="146">
       <formula>IF(A179=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="147">
+    <cfRule type="expression" dxfId="145" priority="147">
       <formula>IF(A179=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184">
-    <cfRule type="expression" dxfId="124" priority="142">
+    <cfRule type="expression" dxfId="144" priority="142">
       <formula>IF(A184=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="143">
+    <cfRule type="expression" dxfId="143" priority="143">
       <formula>IF(A184=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="144">
+    <cfRule type="expression" dxfId="142" priority="144">
       <formula>IF(A184=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="121" priority="139">
+    <cfRule type="expression" dxfId="141" priority="139">
       <formula>IF(A15=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="140">
+    <cfRule type="expression" dxfId="140" priority="140">
       <formula>IF(A15=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="141">
+    <cfRule type="expression" dxfId="139" priority="141">
       <formula>IF(A15=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="118" priority="136">
+    <cfRule type="expression" dxfId="138" priority="136">
       <formula>IF(A23=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="137">
+    <cfRule type="expression" dxfId="137" priority="137">
       <formula>IF(A23=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="138">
+    <cfRule type="expression" dxfId="136" priority="138">
       <formula>IF(A23=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="115" priority="133">
+    <cfRule type="expression" dxfId="135" priority="133">
       <formula>IF(A50=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="134">
+    <cfRule type="expression" dxfId="134" priority="134">
       <formula>IF(A50=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="135">
+    <cfRule type="expression" dxfId="133" priority="135">
       <formula>IF(A50=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="112" priority="130">
+    <cfRule type="expression" dxfId="132" priority="130">
       <formula>IF(A51=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="131">
+    <cfRule type="expression" dxfId="131" priority="131">
       <formula>IF(A51=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="132">
+    <cfRule type="expression" dxfId="130" priority="132">
       <formula>IF(A51=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="109" priority="127">
+    <cfRule type="expression" dxfId="129" priority="127">
       <formula>IF(A58=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="128">
+    <cfRule type="expression" dxfId="128" priority="128">
       <formula>IF(A58=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="129">
+    <cfRule type="expression" dxfId="127" priority="129">
       <formula>IF(A58=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="106" priority="124">
+    <cfRule type="expression" dxfId="126" priority="124">
       <formula>IF(A59=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="125">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>IF(A59=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="126">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>IF(A59=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="expression" dxfId="103" priority="121">
+    <cfRule type="expression" dxfId="123" priority="121">
       <formula>IF(A76=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="122">
+    <cfRule type="expression" dxfId="122" priority="122">
       <formula>IF(A76=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="123">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>IF(A76=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="expression" dxfId="100" priority="118">
+    <cfRule type="expression" dxfId="120" priority="118">
       <formula>IF(A84=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="119">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>IF(A84=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="120">
+    <cfRule type="expression" dxfId="118" priority="120">
       <formula>IF(A84=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="expression" dxfId="97" priority="115">
+    <cfRule type="expression" dxfId="117" priority="115">
       <formula>IF(A64=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="116">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>IF(A64=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="117">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>IF(A64=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="94" priority="109">
+    <cfRule type="expression" dxfId="114" priority="109">
       <formula>IF(A90=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="110">
+    <cfRule type="expression" dxfId="113" priority="110">
       <formula>IF(A90=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="111">
+    <cfRule type="expression" dxfId="112" priority="111">
       <formula>IF(A90=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B155">
-    <cfRule type="expression" dxfId="91" priority="106">
+    <cfRule type="expression" dxfId="111" priority="106">
       <formula>IF(A151=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="107">
+    <cfRule type="expression" dxfId="110" priority="107">
       <formula>IF(A151=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="108">
+    <cfRule type="expression" dxfId="109" priority="108">
       <formula>IF(A151=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172 B175">
-    <cfRule type="expression" dxfId="88" priority="103">
+    <cfRule type="expression" dxfId="108" priority="103">
       <formula>IF(A172=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="104">
+    <cfRule type="expression" dxfId="107" priority="104">
       <formula>IF(A172=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="105">
+    <cfRule type="expression" dxfId="106" priority="105">
       <formula>IF(A172=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195">
-    <cfRule type="expression" dxfId="85" priority="100">
+    <cfRule type="expression" dxfId="105" priority="100">
       <formula>IF(A195=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="101">
+    <cfRule type="expression" dxfId="104" priority="101">
       <formula>IF(A195=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="102">
+    <cfRule type="expression" dxfId="103" priority="102">
       <formula>IF(A195=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192">
-    <cfRule type="expression" dxfId="82" priority="97">
+    <cfRule type="expression" dxfId="102" priority="97">
       <formula>IF(A192=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="98">
+    <cfRule type="expression" dxfId="101" priority="98">
       <formula>IF(A192=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="99">
+    <cfRule type="expression" dxfId="100" priority="99">
       <formula>IF(A192=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B174">
-    <cfRule type="expression" dxfId="79" priority="91">
+    <cfRule type="expression" dxfId="99" priority="91">
       <formula>IF(A173=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="92">
+    <cfRule type="expression" dxfId="98" priority="92">
       <formula>IF(A173=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="93">
+    <cfRule type="expression" dxfId="97" priority="93">
       <formula>IF(A173=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193:B194">
-    <cfRule type="expression" dxfId="76" priority="88">
+    <cfRule type="expression" dxfId="96" priority="88">
       <formula>IF(A193=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="89">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>IF(A193=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>IF(A193=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B226:B235">
-    <cfRule type="expression" dxfId="73" priority="82">
+    <cfRule type="expression" dxfId="93" priority="82">
       <formula>IF(A226=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="83">
+    <cfRule type="expression" dxfId="92" priority="83">
       <formula>IF(A226=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="84">
+    <cfRule type="expression" dxfId="91" priority="84">
       <formula>IF(A226=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B204">
-    <cfRule type="expression" dxfId="70" priority="79">
+    <cfRule type="expression" dxfId="90" priority="79">
       <formula>IF(A204=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="80">
+    <cfRule type="expression" dxfId="89" priority="80">
       <formula>IF(A204=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="81">
+    <cfRule type="expression" dxfId="88" priority="81">
       <formula>IF(A204=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="expression" dxfId="67" priority="73">
+    <cfRule type="expression" dxfId="87" priority="73">
       <formula>IF(A168=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74">
+    <cfRule type="expression" dxfId="86" priority="74">
       <formula>IF(A168=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>IF(A168=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B163">
-    <cfRule type="expression" dxfId="64" priority="67">
+    <cfRule type="expression" dxfId="84" priority="67">
       <formula>IF(A162=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="68">
+    <cfRule type="expression" dxfId="83" priority="68">
       <formula>IF(A162=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="69">
+    <cfRule type="expression" dxfId="82" priority="69">
       <formula>IF(A162=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="81" priority="61">
       <formula>IF(A164=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="80" priority="62">
       <formula>IF(A164=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="79" priority="63">
       <formula>IF(A164=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182:B183">
-    <cfRule type="expression" dxfId="58" priority="64">
+    <cfRule type="expression" dxfId="78" priority="64">
       <formula>IF(A182=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="77" priority="65">
       <formula>IF(A182=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="66">
+    <cfRule type="expression" dxfId="76" priority="66">
       <formula>IF(A182=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="expression" dxfId="55" priority="58">
+    <cfRule type="expression" dxfId="75" priority="58">
       <formula>IF(A165=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="59">
+    <cfRule type="expression" dxfId="74" priority="59">
       <formula>IF(A165=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="60">
+    <cfRule type="expression" dxfId="73" priority="60">
       <formula>IF(A165=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185">
-    <cfRule type="expression" dxfId="52" priority="55">
+    <cfRule type="expression" dxfId="72" priority="55">
       <formula>IF(A185=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="56">
+    <cfRule type="expression" dxfId="71" priority="56">
       <formula>IF(A185=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="57">
+    <cfRule type="expression" dxfId="70" priority="57">
       <formula>IF(A185=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B188">
-    <cfRule type="expression" dxfId="49" priority="52">
+    <cfRule type="expression" dxfId="69" priority="52">
       <formula>IF(A188=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="53">
+    <cfRule type="expression" dxfId="68" priority="53">
       <formula>IF(A188=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="54">
+    <cfRule type="expression" dxfId="67" priority="54">
       <formula>IF(A188=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170">
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="66" priority="49">
       <formula>IF(A170=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="50">
+    <cfRule type="expression" dxfId="65" priority="50">
       <formula>IF(A170=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="64" priority="51">
       <formula>IF(A170=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="expression" dxfId="43" priority="46">
+    <cfRule type="expression" dxfId="63" priority="46">
       <formula>IF(A190=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="47">
+    <cfRule type="expression" dxfId="62" priority="47">
       <formula>IF(A190=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="48">
+    <cfRule type="expression" dxfId="61" priority="48">
       <formula>IF(A190=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 B25:B30">
-    <cfRule type="expression" dxfId="40" priority="43">
+    <cfRule type="expression" dxfId="60" priority="43">
       <formula>IF(A25=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="44">
+    <cfRule type="expression" dxfId="59" priority="44">
       <formula>IF(A25=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="45">
+    <cfRule type="expression" dxfId="58" priority="45">
       <formula>IF(A25=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B33">
-    <cfRule type="expression" dxfId="37" priority="40">
+    <cfRule type="expression" dxfId="57" priority="40">
       <formula>IF(A31=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>IF(A31=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="42">
+    <cfRule type="expression" dxfId="55" priority="42">
       <formula>IF(A31=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44 B35:B40">
-    <cfRule type="expression" dxfId="34" priority="37">
+    <cfRule type="expression" dxfId="54" priority="37">
       <formula>IF(A35=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38">
+    <cfRule type="expression" dxfId="53" priority="38">
       <formula>IF(A35=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="39">
+    <cfRule type="expression" dxfId="52" priority="39">
       <formula>IF(A35=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B43">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="51" priority="34">
       <formula>IF(A41=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="50" priority="35">
       <formula>IF(A41=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="49" priority="36">
       <formula>IF(A41=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B106">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="48" priority="31">
       <formula>IF(A105=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="47" priority="32">
       <formula>IF(A105=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="33">
+    <cfRule type="expression" dxfId="46" priority="33">
       <formula>IF(A105=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>IF(A110=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>IF(A110=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="43" priority="30">
       <formula>IF(A110=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B109">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>IF(A107=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>IF(A107=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>IF(A107=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B114">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>IF(A112=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>IF(A112=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>IF(A112=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B119">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>IF(A115=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>IF(A115=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>IF(A115=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B121">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>IF(A120=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>IF(A120=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>IF(A120=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>IF(A125=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>IF(A125=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>IF(A125=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:B124">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(A122=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>IF(A122=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>IF(A122=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>IF(A127=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>IF(A127=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>IF(A127=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G201">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>IF(VLOOKUP(C4,part_details,13,FALSE)&gt;=G4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C465">
-    <cfRule type="expression" dxfId="0" priority="169">
+    <cfRule type="expression" dxfId="20" priority="169">
       <formula>IF(E4="x",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32009,12 +32116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R637"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32041,27 +32150,27 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K1" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>805</v>
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="57" t="s">
+        <v>801</v>
+      </c>
+      <c r="P1" s="56" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K2" s="3">
         <f>SUM(Table1[Ideal cost])</f>
-        <v>1991.2497646415752</v>
+        <v>1876.4906326159341</v>
       </c>
       <c r="L2" s="3"/>
       <c r="P2" s="51">
         <f>SUM(Table1[Remaining Extended cost])</f>
-        <v>1838.57554</v>
+        <v>1712.0288466666666</v>
       </c>
       <c r="Q2" s="3">
         <f>SUM(Table1[Cost of excess material])</f>
-        <v>222.93382793406593</v>
+        <v>211.1462666263736</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>6</v>
@@ -32090,37 +32199,37 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="N3" s="48" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="R3" s="37" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -32128,7 +32237,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>648</v>
@@ -32150,7 +32259,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J4" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -32185,7 +32294,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>648</v>
@@ -32293,7 +32402,7 @@
         <v>8.8224599999999995</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -32355,7 +32464,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -32421,7 +32530,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>656</v>
@@ -32472,7 +32581,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="36" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -32531,7 +32640,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -32593,7 +32702,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>656</v>
@@ -32647,7 +32756,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -32655,7 +32764,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>656</v>
@@ -32713,7 +32822,7 @@
         <v>689</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D14" s="3">
         <v>25.91</v>
@@ -32760,7 +32869,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -32768,7 +32877,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>656</v>
@@ -32782,7 +32891,7 @@
         <v>8.091000000000001E-3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H15" s="2">
         <v>100</v>
@@ -32875,7 +32984,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>698</v>
@@ -32892,7 +33001,7 @@
         <v>2.7611999999999997</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -32933,54 +33042,52 @@
         <v>699</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="D18" s="3">
-        <f>8.03/10</f>
-        <v>0.80299999999999994</v>
+        <v>0.59</v>
       </c>
       <c r="E18" s="3">
-        <f>10/10</f>
-        <v>1</v>
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F18" s="3">
         <f>9%*Table1[[#This Row],[Cost ]]</f>
-        <v>7.2269999999999987E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>701</v>
+        <v>981</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>702</v>
+        <v>982</v>
       </c>
       <c r="J18" s="49">
-        <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K18" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>22.503239999999998</v>
+        <v>1.0597666666666665</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="40"/>
       <c r="N18" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O18" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P18" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>37.505400000000002</v>
+        <v>1.0597666666666665</v>
       </c>
       <c r="Q18" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>15.00216</v>
+        <v>0</v>
       </c>
       <c r="R18" s="36"/>
     </row>
@@ -32989,10 +33096,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D19" s="3">
         <v>16.989999999999998</v>
@@ -33004,7 +33111,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -33042,16 +33149,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D20" s="3">
-        <v>18.38</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -33062,13 +33169,16 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>984</v>
+      </c>
       <c r="J20" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
         <v>1</v>
       </c>
       <c r="K20" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="40"/>
@@ -33082,7 +33192,7 @@
       </c>
       <c r="P20" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>20.38</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
@@ -33095,10 +33205,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D21" s="3">
         <v>3.74</v>
@@ -33111,13 +33221,13 @@
         <v>0.33660000000000001</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J21" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33152,7 +33262,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>656</v>
@@ -33168,7 +33278,7 @@
         <v>1.9395</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -33202,7 +33312,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -33210,7 +33320,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>656</v>
@@ -33223,7 +33333,7 @@
         <v>1.7982</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -33261,10 +33371,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D24" s="3">
         <v>8.5500000000000007</v>
@@ -33277,13 +33387,13 @@
         <v>0.76950000000000007</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J24" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33318,10 +33428,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D25" s="3">
         <f>6.18/35</f>
@@ -33332,13 +33442,13 @@
         <v>1.589142857142857E-2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H25" s="2">
         <v>35</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J25" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33373,10 +33483,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D26" s="3">
         <f>14.75/4</f>
@@ -33394,7 +33504,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J26" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33429,10 +33539,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D27" s="3">
         <f>7.51/12</f>
@@ -33450,7 +33560,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J27" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33485,10 +33595,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D28" s="3">
         <f>5.1/2</f>
@@ -33502,13 +33612,13 @@
         <v>0.22949999999999998</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="H28" s="2">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="J28" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -33543,10 +33653,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D29" s="3">
         <f>8.99/50</f>
@@ -33557,18 +33667,18 @@
         <v>1.6182000000000002E-2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H29" s="2">
         <v>50</v>
       </c>
       <c r="J29" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K29" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>6.8593700000000002</v>
+        <v>1.5678560000000001</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="40"/>
@@ -33578,7 +33688,7 @@
       </c>
       <c r="O29" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="P29" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
@@ -33586,7 +33696,7 @@
       </c>
       <c r="Q29" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>2.9397300000000004</v>
+        <v>8.2312440000000002</v>
       </c>
       <c r="R29" s="36"/>
     </row>
@@ -33595,7 +33705,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>656</v>
@@ -33609,36 +33719,36 @@
         <v>2.8003846153846153E-2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H30" s="2">
         <v>26</v>
       </c>
       <c r="J30" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K30" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>12.209676923076923</v>
+        <v>3.0524192307692308</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="40"/>
       <c r="N30" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O30" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P30" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>17.636200000000002</v>
+        <v>8.8181000000000012</v>
       </c>
       <c r="Q30" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>5.4265230769230772</v>
+        <v>5.7656807692307694</v>
       </c>
       <c r="R30" s="36"/>
     </row>
@@ -33647,7 +33757,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>656</v>
@@ -33661,7 +33771,7 @@
         <v>8.0010000000000012E-3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H31" s="2">
         <v>100</v>
@@ -33699,7 +33809,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>656</v>
@@ -33713,7 +33823,7 @@
         <v>8.541E-2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H32" s="2">
         <v>10</v>
@@ -33751,7 +33861,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>656</v>
@@ -33765,7 +33875,7 @@
         <v>0.10061999999999999</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H33" s="2">
         <v>5</v>
@@ -33803,7 +33913,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>656</v>
@@ -33817,7 +33927,7 @@
         <v>4.2749999999999996E-2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
@@ -33855,7 +33965,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>656</v>
@@ -33869,7 +33979,7 @@
         <v>3.5964000000000003E-2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H35" s="2">
         <v>25</v>
@@ -33907,7 +34017,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>656</v>
@@ -33921,7 +34031,7 @@
         <v>7.6410000000000002E-3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H36" s="2">
         <v>100</v>
@@ -33959,7 +34069,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>656</v>
@@ -33973,7 +34083,7 @@
         <v>7.1909999999999995E-3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H37" s="2">
         <v>100</v>
@@ -34011,7 +34121,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>656</v>
@@ -34025,7 +34135,7 @@
         <v>4.4910000000000002E-3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H38" s="2">
         <v>100</v>
@@ -34063,10 +34173,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D39" s="3">
         <v>5.69</v>
@@ -34079,13 +34189,13 @@
         <v>0.5121</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J39" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34120,7 +34230,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>648</v>
@@ -34141,7 +34251,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J40" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34176,10 +34286,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D41" s="3">
         <v>2.2000000000000002</v>
@@ -34193,13 +34303,13 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J41" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34234,10 +34344,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D42" s="3">
         <f>25/2</f>
@@ -34252,13 +34362,13 @@
         <v>1.125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J42" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34293,7 +34403,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>656</v>
@@ -34307,7 +34417,7 @@
         <v>1.3477499999999998E-2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H43" s="2">
         <v>40</v>
@@ -34345,7 +34455,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>855</v>
+        <v>989</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>656</v>
@@ -34358,8 +34468,8 @@
         <f>9%*Table1[[#This Row],[Cost ]]</f>
         <v>5.391E-3</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>856</v>
+      <c r="G44" s="5" t="s">
+        <v>851</v>
       </c>
       <c r="H44" s="2">
         <v>100</v>
@@ -34397,7 +34507,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>656</v>
@@ -34411,7 +34521,7 @@
         <v>0.24727499999999999</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="H45" s="2">
         <v>4</v>
@@ -34449,7 +34559,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>698</v>
@@ -34466,13 +34576,13 @@
         <v>0.31319999999999998</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J46" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34507,7 +34617,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>698</v>
@@ -34524,7 +34634,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -34562,10 +34672,10 @@
         <v>51</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D48" s="3">
         <f>12.25/3</f>
@@ -34579,13 +34689,13 @@
         <v>0.36749999999999994</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="H48" s="2">
         <v>3</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J48" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34616,7 +34726,7 @@
         <v>10.901666666666666</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -34624,7 +34734,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>698</v>
@@ -34641,13 +34751,13 @@
         <v>0.2727</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J49" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34682,7 +34792,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>656</v>
@@ -34695,7 +34805,7 @@
         <v>3.069</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
@@ -34733,7 +34843,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>656</v>
@@ -34747,7 +34857,7 @@
         <v>1.5345</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
@@ -34785,7 +34895,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>656</v>
@@ -34798,7 +34908,7 @@
         <v>3.5991</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -34836,7 +34946,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>656</v>
@@ -34849,7 +34959,7 @@
         <v>0.98909999999999998</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -34887,10 +34997,10 @@
         <v>57</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D54" s="3">
         <v>46.71</v>
@@ -34903,13 +35013,13 @@
         <v>4.2039</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="J54" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -34944,7 +35054,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>656</v>
@@ -34957,7 +35067,7 @@
         <v>2.0690999999999997</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -34995,7 +35105,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>656</v>
@@ -35008,7 +35118,7 @@
         <v>0.79649999999999999</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -35046,10 +35156,10 @@
         <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D57" s="3">
         <v>48.96</v>
@@ -35061,13 +35171,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="J57" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35102,10 +35212,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D58" s="3">
         <v>147</v>
@@ -35117,13 +35227,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J58" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35154,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="36" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -35162,10 +35272,10 @@
         <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D59" s="3">
         <v>69.08</v>
@@ -35177,13 +35287,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J59" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35218,7 +35328,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>656</v>
@@ -35231,7 +35341,7 @@
         <v>2.2212000000000001</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -35269,7 +35379,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>656</v>
@@ -35282,7 +35392,7 @@
         <v>0.89910000000000001</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -35320,7 +35430,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>656</v>
@@ -35333,7 +35443,7 @@
         <v>1.8890999999999998</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -35371,7 +35481,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>656</v>
@@ -35385,7 +35495,7 @@
         <v>0.17981999999999998</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="H63" s="2">
         <v>5</v>
@@ -35423,7 +35533,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>656</v>
@@ -35437,7 +35547,7 @@
         <v>8.9910000000000007E-3</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="H64" s="2">
         <v>100</v>
@@ -35475,7 +35585,7 @@
         <v>68</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>656</v>
@@ -35488,37 +35598,37 @@
         <f>9%*Table1[[#This Row],[Cost ]]</f>
         <v>8.091000000000001E-3</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>922</v>
+      <c r="G65" s="5" t="s">
+        <v>917</v>
       </c>
       <c r="H65" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J65" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K65" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>3.5276760000000005</v>
+        <v>0.88191900000000012</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="40"/>
       <c r="N65" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O65" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P65" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>9.799100000000001</v>
+        <v>3.9196400000000002</v>
       </c>
       <c r="Q65" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>6.2714240000000006</v>
+        <v>3.0377210000000003</v>
       </c>
       <c r="R65" s="36"/>
     </row>
@@ -35527,7 +35637,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>656</v>
@@ -35541,7 +35651,7 @@
         <v>2.5769999999999998E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H66" s="2">
         <v>12</v>
@@ -35579,10 +35689,10 @@
         <v>70</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D67" s="3">
         <f>4.69/13</f>
@@ -35593,13 +35703,13 @@
         <v>3.2469230769230771E-2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H67" s="2">
         <v>12</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="J67" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35630,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -35638,10 +35748,10 @@
         <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D68" s="3">
         <v>14.78</v>
@@ -35657,21 +35767,21 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J68" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K68" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>57.330600000000004</v>
+        <v>0</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="40"/>
       <c r="N68" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O68" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
@@ -35679,7 +35789,7 @@
       </c>
       <c r="P68" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>57.330600000000004</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
@@ -35692,7 +35802,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>656</v>
@@ -35706,36 +35816,36 @@
         <v>1.0782E-2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="H69" s="2">
         <v>50</v>
       </c>
       <c r="J69" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K69" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>1.9587300000000001</v>
+        <v>0</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="40"/>
       <c r="N69" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O69" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P69" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>6.5291000000000006</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>4.5703700000000005</v>
+        <v>0</v>
       </c>
       <c r="R69" s="36"/>
     </row>
@@ -35744,10 +35854,10 @@
         <v>73</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D70" s="3">
         <v>11.94</v>
@@ -35763,21 +35873,21 @@
         <v>3</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J70" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K70" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>45.043799999999997</v>
+        <v>0</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="40"/>
       <c r="N70" s="49">
         <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O70" s="49">
         <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
@@ -35785,7 +35895,7 @@
       </c>
       <c r="P70" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>45.043799999999997</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
@@ -35798,10 +35908,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F71" s="3">
         <f>9%*Table1[[#This Row],[Cost ]]</f>
@@ -35839,17 +35949,37 @@
         <v>0</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" t="s">
+        <v>977</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5</v>
+      </c>
       <c r="F72" s="3">
         <f>9%*Table1[[#This Row],[Cost ]]</f>
-        <v>0</v>
+        <v>0.1341</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="J72" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
@@ -35861,13 +35991,13 @@
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="40"/>
-      <c r="N72" s="49" t="e">
-        <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" s="49" t="e">
-        <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>#DIV/0!</v>
+      <c r="N72" s="49">
+        <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="49">
+        <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
+        <v>0</v>
       </c>
       <c r="P72" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
@@ -35879,40 +36009,61 @@
       </c>
       <c r="R72" s="36"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D73" s="3">
+        <f>10.97/10</f>
+        <v>1.097</v>
+      </c>
+      <c r="E73" s="3">
+        <f>2.5/10</f>
+        <v>0.25</v>
+      </c>
       <c r="F73" s="3">
-        <f>9%*Table1[[#This Row],[Cost ]]</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="J73" s="49">
         <f>SUMIF('Multi-level BOM'!C$4:C$465,Table1[[#This Row],[Part Number]],'Multi-level BOM'!G$4:G$465)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K73" s="10">
         <f>Table1[[#This Row],[extended quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])</f>
-        <v>0</v>
+        <v>48.491999999999997</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="40"/>
-      <c r="N73" s="49" t="e">
-        <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" s="49" t="e">
-        <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
-        <v>#DIV/0!</v>
+      <c r="N73" s="49">
+        <f>CEILING((Table1[[#This Row],[extended quantity]]-Table1[[#This Row],[quantity on-hand]])/Table1[[#This Row],[Minimum order quantity]],1)*Table1[[#This Row],[Minimum order quantity]]</f>
+        <v>40</v>
+      </c>
+      <c r="O73" s="49">
+        <f>Table1[[#This Row],[Order quantity]]+Table1[[#This Row],[quantity on-hand]]-Table1[[#This Row],[extended quantity]]</f>
+        <v>4</v>
       </c>
       <c r="P73" s="51">
         <f>IFERROR(Table1[[#This Row],[Order quantity]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]]),0)</f>
-        <v>0</v>
+        <v>53.879999999999995</v>
       </c>
       <c r="Q73" s="36">
         <f>IFERROR(IF(Table1[[#This Row],[Order quantity]]=0,0,Table1[[#This Row],[leftover material]]*(Table1[[#This Row],[Cost ]]+Table1[[#This Row],[shipping]]+Table1[[#This Row],[Tax]])),0)</f>
-        <v>0</v>
+        <v>5.3879999999999999</v>
       </c>
       <c r="R73" s="36"/>
     </row>
@@ -56712,7 +56863,12 @@
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M637" s="38" t="s">
-        <v>707</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="648" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F648" s="3" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -56731,11 +56887,13 @@
     <hyperlink ref="G23" r:id="rId11"/>
     <hyperlink ref="G35" r:id="rId12"/>
     <hyperlink ref="G49" r:id="rId13"/>
+    <hyperlink ref="G44" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -56745,7 +56903,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56763,59 +56921,67 @@
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I1" s="21"/>
       <c r="L1" s="19"/>
       <c r="M1" s="20" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>597</v>
+        <v>5.5</v>
       </c>
       <c r="B2">
         <f>A2/25.4</f>
-        <v>23.503937007874018</v>
+        <v>0.21653543307086615</v>
+      </c>
+      <c r="C2">
+        <f>B2*16</f>
+        <v>3.4645669291338583</v>
+      </c>
+      <c r="D2">
+        <f>B2*32</f>
+        <v>6.9291338582677167</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23">
         <v>0.9</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="29">
         <v>5.9</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>690</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>A3/25.4</f>
-        <v>27.165354330708663</v>
+        <v>0.47244094488188981</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23">
         <v>6</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="23">
         <v>0.9</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -56824,14 +56990,14 @@
         <v>0.25</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="23">
         <v>6</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -56840,14 +57006,14 @@
         <v>6</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="23">
         <v>0.25</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -56859,60 +57025,61 @@
         <v>34.25</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="23">
         <v>6</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24</v>
+        <f>7/32</f>
+        <v>0.21875</v>
       </c>
       <c r="B7">
         <f>25.4*A7</f>
-        <v>609.59999999999991</v>
+        <v>5.5562499999999995</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23">
         <v>9.52</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="23">
         <v>11.9</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <f>25.4*A8</f>
-        <v>1219.1999999999998</v>
+        <v>609.59999999999991</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23">
         <v>0.9</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="18">
         <v>0.9</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56921,7 +57088,7 @@
         <v>5.9</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="26">
@@ -56942,7 +57109,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I12" s="21"/>
     </row>
@@ -56952,7 +57119,7 @@
         <v>0.9</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -56961,7 +57128,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -56973,7 +57140,7 @@
         <v>49.5</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -56982,7 +57149,7 @@
         <v>9.52</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.25">
@@ -56991,7 +57158,7 @@
         <v>0.9</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57000,7 +57167,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57015,12 +57182,12 @@
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G22" s="19"/>
       <c r="H22" s="20" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I22" s="21"/>
       <c r="L22" s="19"/>
       <c r="M22" s="20" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="N22" s="21"/>
     </row>
@@ -57031,7 +57198,7 @@
         <v>11.5</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="23">
@@ -57039,7 +57206,7 @@
         <v>8.5</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="7:14" x14ac:dyDescent="0.25">
@@ -57048,14 +57215,14 @@
         <v>9.52</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="23">
         <v>6.35</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
@@ -57064,14 +57231,14 @@
         <v>0.5</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="23">
         <v>0.5</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="7:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57080,14 +57247,14 @@
         <v>3.9</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="18">
         <v>3.9</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="7:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57108,7 +57275,7 @@
     <row r="30" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G30" s="19"/>
       <c r="H30" s="20" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I30" s="21"/>
     </row>
@@ -57118,7 +57285,7 @@
         <v>241.5</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.25">
@@ -57127,7 +57294,7 @@
         <v>9.5</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
@@ -57136,7 +57303,7 @@
         <v>597.5</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
@@ -57145,7 +57312,7 @@
         <v>10.5</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
@@ -57154,7 +57321,7 @@
         <v>68.7</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
@@ -57163,7 +57330,7 @@
         <v>14.9</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
@@ -57172,7 +57339,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
@@ -57181,7 +57348,7 @@
         <v>22.2</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
@@ -57190,7 +57357,7 @@
         <v>440</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
@@ -57199,7 +57366,7 @@
         <v>13.3</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
@@ -57208,7 +57375,7 @@
         <v>302</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.25">
@@ -57217,7 +57384,7 @@
         <v>13.4</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.25">
@@ -57226,7 +57393,7 @@
         <v>470</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57235,7 +57402,7 @@
         <v>16.5</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="45" spans="7:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -57252,7 +57419,7 @@
         <v>4.5136000000000003</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -57277,17 +57444,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -57375,7 +57542,7 @@
         <v>3.78</v>
       </c>
       <c r="D14" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -57385,12 +57552,12 @@
       <c r="B15">
         <v>3.93</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="53">
         <f>25*(B25-B10)/(A25-A10)</f>
         <v>0.1575</v>
       </c>
       <c r="E15" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -57401,7 +57568,7 @@
       <c r="B16">
         <v>4.41</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="54"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -57411,12 +57578,12 @@
       <c r="B17">
         <v>5.04</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="55">
         <f>3.03/(D15/25)</f>
         <v>480.95238095238091</v>
       </c>
       <c r="E17" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
